--- a/ViT_docs/ViT_Task 단위 모듈 설계_WBS 추가.xlsx
+++ b/ViT_docs/ViT_Task 단위 모듈 설계_WBS 추가.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\fork_visual_tool\ViT_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\source\iitp\fork\visual-tool\ViT_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6E5DA6-7A26-4243-9770-B4989EA7F7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF4128-E996-42BC-8563-62DCC571A61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12560" yWindow="1830" windowWidth="27390" windowHeight="20140" xr2:uid="{FE70F081-2A33-4C8B-B788-31827E4A1C2F}"/>
+    <workbookView xWindow="20480" yWindow="4680" windowWidth="14400" windowHeight="7470" xr2:uid="{FE70F081-2A33-4C8B-B788-31827E4A1C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task단위 모듈" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="139">
   <si>
     <t>테스트 환경 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>연결 API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫번째 Property 정보 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,23 +124,6 @@
   </si>
   <si>
     <t>Properties 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Properties
-상세정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Properties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vertex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -587,6 +566,46 @@
     <t>자동화 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>정정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표(Table) 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 정보 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화 차트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업(Popup) 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내(Guide) Text 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 속성 정보 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -976,20 +995,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -998,9 +1029,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1013,15 +1041,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1369,8 +1388,8 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1384,27 +1403,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="47" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -1412,7 +1431,7 @@
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -1420,7 +1439,7 @@
       <c r="A4" s="47"/>
       <c r="B4" s="47"/>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -1428,17 +1447,17 @@
       <c r="A5" s="47"/>
       <c r="B5" s="47"/>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="47"/>
       <c r="B6" s="47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -1446,7 +1465,7 @@
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1454,7 +1473,7 @@
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -1462,7 +1481,7 @@
       <c r="A9" s="47"/>
       <c r="B9" s="47"/>
       <c r="C9" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -1470,7 +1489,7 @@
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -1478,7 +1497,7 @@
       <c r="A11" s="47"/>
       <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -1486,7 +1505,7 @@
       <c r="A12" s="47"/>
       <c r="B12" s="47"/>
       <c r="C12" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -1494,7 +1513,7 @@
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -1502,7 +1521,7 @@
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -1510,7 +1529,7 @@
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -1518,7 +1537,7 @@
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -1526,33 +1545,33 @@
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -1560,7 +1579,7 @@
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -1568,7 +1587,7 @@
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -1576,7 +1595,7 @@
       <c r="A22" s="47"/>
       <c r="B22" s="47"/>
       <c r="C22" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -1584,27 +1603,27 @@
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="47"/>
       <c r="B24" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="47"/>
       <c r="B25" s="47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -1612,10 +1631,10 @@
       <c r="A26" s="47"/>
       <c r="B26" s="47"/>
       <c r="C26" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -1623,7 +1642,7 @@
       <c r="B27" s="47"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -1631,7 +1650,7 @@
       <c r="B28" s="47"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -1639,14 +1658,14 @@
       <c r="B29" s="47"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
       <c r="C30" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -1654,7 +1673,7 @@
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D31" s="4"/>
     </row>
@@ -1662,7 +1681,7 @@
       <c r="A32" s="47"/>
       <c r="B32" s="47"/>
       <c r="C32" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D32" s="4"/>
     </row>
@@ -1670,7 +1689,7 @@
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -1678,7 +1697,7 @@
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D34" s="4"/>
     </row>
@@ -1686,7 +1705,7 @@
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D35" s="4"/>
     </row>
@@ -1694,411 +1713,411 @@
       <c r="A36" s="47"/>
       <c r="B36" s="47"/>
       <c r="C36" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="47"/>
       <c r="B37" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="47"/>
       <c r="B40" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
       <c r="D44" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
       <c r="D47" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="45"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45" t="s">
-        <v>35</v>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48" t="s">
+        <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="45"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="45"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="4" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="45"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="44" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="45"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="45"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" s="45"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A66" s="46"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="44" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
       <c r="C69" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="44" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
       <c r="D71" s="4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" s="46"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="4" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="47"/>
       <c r="B77" s="47" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" s="4"/>
     </row>
@@ -2106,33 +2125,33 @@
       <c r="A78" s="47"/>
       <c r="B78" s="47"/>
       <c r="C78" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" s="4"/>
     </row>
@@ -2140,7 +2159,7 @@
       <c r="A81" s="47"/>
       <c r="B81" s="47"/>
       <c r="C81" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="4"/>
     </row>
@@ -2148,7 +2167,7 @@
       <c r="A82" s="47"/>
       <c r="B82" s="47"/>
       <c r="C82" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="4"/>
     </row>
@@ -2156,33 +2175,33 @@
       <c r="A83" s="47"/>
       <c r="B83" s="47"/>
       <c r="C83" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B85" s="47" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="4"/>
     </row>
@@ -2190,10 +2209,10 @@
       <c r="A86" s="47"/>
       <c r="B86" s="47"/>
       <c r="C86" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
@@ -2201,17 +2220,17 @@
       <c r="B87" s="47"/>
       <c r="C87" s="47"/>
       <c r="D87" s="4" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="47"/>
       <c r="B88" s="47"/>
       <c r="C88" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
@@ -2219,68 +2238,68 @@
       <c r="B89" s="47"/>
       <c r="C89" s="47"/>
       <c r="D89" s="4" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="47"/>
-      <c r="B92" s="46"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="47"/>
       <c r="B93" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A95" s="49" t="s">
-        <v>123</v>
+      <c r="A95" s="46" t="s">
+        <v>118</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>2</v>
@@ -2289,7 +2308,7 @@
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96" s="49"/>
+      <c r="A96" s="46"/>
       <c r="B96" s="4" t="s">
         <v>1</v>
       </c>
@@ -2298,16 +2317,16 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
@@ -2315,65 +2334,45 @@
         <v>0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="44" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A101" s="46"/>
+      <c r="A101" s="45"/>
       <c r="B101" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A58"/>
-    <mergeCell ref="B42:B51"/>
     <mergeCell ref="C42:C48"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="B53:B54"/>
@@ -2384,6 +2383,26 @@
     <mergeCell ref="A19:A37"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B25:B36"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A58"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2413,88 +2432,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="A1" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D3" s="39"/>
-      <c r="E3" s="55">
+      <c r="E3" s="58">
         <v>44562</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="54">
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="57">
         <v>44593</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57">
         <v>44621</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="57">
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="60">
         <v>44652</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57">
         <v>44682</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54">
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57">
         <v>44713</v>
       </c>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54">
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57">
         <v>44743</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54">
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57">
         <v>44774</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54">
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57">
         <v>44805</v>
       </c>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54">
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57">
         <v>44835</v>
       </c>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54">
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57">
         <v>44866</v>
       </c>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54">
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57">
         <v>44896</v>
       </c>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4" s="53"/>
@@ -2611,14 +2630,14 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A5" s="49" t="s">
-        <v>112</v>
+      <c r="A5" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="30"/>
@@ -2662,7 +2681,7 @@
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="32"/>
@@ -2706,7 +2725,7 @@
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="32"/>
@@ -2750,7 +2769,7 @@
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="32"/>
@@ -2793,10 +2812,10 @@
     <row r="9" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A9" s="47"/>
       <c r="B9" s="44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="15"/>
@@ -2837,9 +2856,9 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A10" s="47"/>
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="15"/>
@@ -2880,9 +2899,9 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A11" s="47"/>
-      <c r="B11" s="45"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="15"/>
@@ -2923,9 +2942,9 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A12" s="47"/>
-      <c r="B12" s="45"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="15"/>
@@ -2966,9 +2985,9 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A13" s="47"/>
-      <c r="B13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="15"/>
@@ -3009,9 +3028,9 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A14" s="47"/>
-      <c r="B14" s="45"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="15"/>
@@ -3052,9 +3071,9 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A15" s="47"/>
-      <c r="B15" s="45"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="15"/>
@@ -3095,9 +3114,9 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A16" s="47"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="15"/>
@@ -3138,9 +3157,9 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A17" s="47"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="15"/>
@@ -3181,9 +3200,9 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A18" s="47"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="15"/>
@@ -3224,9 +3243,9 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A19" s="47"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="15"/>
@@ -3267,9 +3286,9 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A20" s="47"/>
-      <c r="B20" s="46"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="15"/>
@@ -3310,13 +3329,13 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" s="47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="15"/>
@@ -3357,7 +3376,7 @@
       <c r="A22" s="47"/>
       <c r="B22" s="47"/>
       <c r="C22" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="15"/>
@@ -3397,7 +3416,7 @@
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="15"/>
@@ -3437,7 +3456,7 @@
       <c r="A24" s="47"/>
       <c r="B24" s="47"/>
       <c r="C24" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="15"/>
@@ -3476,10 +3495,10 @@
     <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25" s="47"/>
       <c r="B25" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="15"/>
@@ -3518,10 +3537,10 @@
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26" s="47"/>
       <c r="B26" s="47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="15"/>
@@ -3564,7 +3583,7 @@
       <c r="A27" s="47"/>
       <c r="B27" s="47"/>
       <c r="C27" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="15"/>
@@ -3607,7 +3626,7 @@
       <c r="A28" s="47"/>
       <c r="B28" s="47"/>
       <c r="C28" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="15"/>
@@ -3650,7 +3669,7 @@
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="C29" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="15"/>
@@ -3693,7 +3712,7 @@
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
       <c r="C30" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="15"/>
@@ -3736,7 +3755,7 @@
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="15"/>
@@ -3779,7 +3798,7 @@
       <c r="A32" s="47"/>
       <c r="B32" s="47"/>
       <c r="C32" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="15"/>
@@ -3822,7 +3841,7 @@
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="15"/>
@@ -3863,13 +3882,13 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="15"/>
@@ -3909,13 +3928,13 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A35" s="44" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D35" s="42"/>
       <c r="E35" s="15"/>
@@ -3953,10 +3972,10 @@
       <c r="AN35" s="22"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="15"/>
@@ -3994,10 +4013,10 @@
       <c r="AN36" s="22"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="15"/>
@@ -4035,10 +4054,10 @@
       <c r="AN37" s="22"/>
     </row>
     <row r="38" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D38" s="42"/>
       <c r="E38" s="15"/>
@@ -4076,9 +4095,9 @@
       <c r="AN38" s="22"/>
     </row>
     <row r="39" spans="1:40" ht="51" x14ac:dyDescent="0.45">
-      <c r="A39" s="46"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="42"/>
@@ -4116,10 +4135,10 @@
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="42"/>
@@ -4161,8 +4180,8 @@
       <c r="AN40" s="22"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A41" s="49" t="s">
-        <v>124</v>
+      <c r="A41" s="46" t="s">
+        <v>119</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>2</v>
@@ -4207,7 +4226,7 @@
       <c r="AN41" s="22"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A42" s="49"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="12" t="s">
         <v>1</v>
       </c>
@@ -4246,10 +4265,10 @@
     </row>
     <row r="43" spans="1:40" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="40"/>
@@ -4291,11 +4310,11 @@
       <c r="AN43" s="22"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A44" s="49" t="s">
-        <v>127</v>
+      <c r="A44" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -4338,7 +4357,7 @@
     <row r="45" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A45" s="47"/>
       <c r="B45" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -4418,88 +4437,88 @@
       <c r="AN46" s="16"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A47" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
+      <c r="A47" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A49" s="53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D49" s="39"/>
-      <c r="E49" s="59">
+      <c r="E49" s="51">
         <v>44927</v>
       </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="58">
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="50">
         <v>44562</v>
       </c>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58">
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50">
         <v>44621</v>
       </c>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="60">
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="52">
         <v>44652</v>
       </c>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58">
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50">
         <v>44682</v>
       </c>
-      <c r="R49" s="58"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58">
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50">
         <v>44713</v>
       </c>
-      <c r="U49" s="58"/>
-      <c r="V49" s="58"/>
-      <c r="W49" s="58">
+      <c r="U49" s="50"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="50">
         <v>44743</v>
       </c>
-      <c r="X49" s="58"/>
-      <c r="Y49" s="58"/>
-      <c r="Z49" s="58">
+      <c r="X49" s="50"/>
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="50">
         <v>44774</v>
       </c>
-      <c r="AA49" s="58"/>
-      <c r="AB49" s="58"/>
-      <c r="AC49" s="58">
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50">
         <v>44805</v>
       </c>
-      <c r="AD49" s="58"/>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="58">
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50">
         <v>44835</v>
       </c>
-      <c r="AG49" s="58"/>
-      <c r="AH49" s="58"/>
-      <c r="AI49" s="58">
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50">
         <v>44866</v>
       </c>
-      <c r="AJ49" s="58"/>
-      <c r="AK49" s="58"/>
-      <c r="AL49" s="58">
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="50"/>
+      <c r="AL49" s="50">
         <v>44896</v>
       </c>
-      <c r="AM49" s="58"/>
-      <c r="AN49" s="58"/>
+      <c r="AM49" s="50"/>
+      <c r="AN49" s="50"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A50" s="53"/>
@@ -4617,13 +4636,13 @@
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A51" s="47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D51" s="42"/>
       <c r="E51" s="15"/>
@@ -4665,10 +4684,10 @@
     <row r="52" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A52" s="47"/>
       <c r="B52" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D52" s="42"/>
       <c r="E52" s="15"/>
@@ -4710,7 +4729,7 @@
     <row r="53" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A53" s="47"/>
       <c r="B53" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="42"/>
@@ -4752,13 +4771,13 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" s="42"/>
       <c r="E54" s="26"/>
@@ -4800,13 +4819,13 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A55" s="44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D55" s="42"/>
       <c r="E55" s="15"/>
@@ -4846,10 +4865,10 @@
       <c r="AN55" s="22"/>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A56" s="45"/>
-      <c r="B56" s="48"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D56" s="42"/>
       <c r="E56" s="15"/>
@@ -4887,10 +4906,10 @@
       <c r="AN56" s="22"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D57" s="42"/>
       <c r="E57" s="15"/>
@@ -4929,9 +4948,9 @@
       <c r="AN57" s="22"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A58" s="45"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="42"/>
@@ -4971,12 +4990,12 @@
       <c r="AN58" s="22"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A59" s="45"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D59" s="42"/>
       <c r="E59" s="15"/>
@@ -5016,10 +5035,10 @@
       <c r="AN59" s="22"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A60" s="45"/>
-      <c r="B60" s="46"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
@@ -5059,13 +5078,13 @@
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A61" s="44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D61" s="42"/>
       <c r="E61" s="15"/>
@@ -5105,10 +5124,10 @@
       <c r="AN61" s="22"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D62" s="42"/>
       <c r="E62" s="15"/>
@@ -5148,10 +5167,10 @@
       <c r="AN62" s="22"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D63" s="42"/>
       <c r="E63" s="15"/>
@@ -5191,10 +5210,10 @@
       <c r="AN63" s="22"/>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D64" s="42"/>
       <c r="E64" s="15"/>
@@ -5234,10 +5253,10 @@
       <c r="AN64" s="22"/>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="15"/>
@@ -5277,10 +5296,10 @@
       <c r="AN65" s="22"/>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A66" s="45"/>
-      <c r="B66" s="46"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D66" s="42"/>
       <c r="E66" s="15"/>
@@ -5320,9 +5339,9 @@
       <c r="AN66" s="22"/>
     </row>
     <row r="67" spans="1:40" ht="51" x14ac:dyDescent="0.45">
-      <c r="A67" s="46"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="42"/>
@@ -5364,13 +5383,13 @@
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A68" s="44" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D68" s="42"/>
       <c r="E68" s="15"/>
@@ -5410,10 +5429,10 @@
       <c r="AN68" s="22"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
       <c r="C69" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D69" s="42"/>
       <c r="E69" s="15"/>
@@ -5453,10 +5472,10 @@
       <c r="AN69" s="22"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D70" s="42"/>
       <c r="E70" s="15"/>
@@ -5497,13 +5516,13 @@
     </row>
     <row r="71" spans="1:40" ht="34" x14ac:dyDescent="0.45">
       <c r="A71" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71" s="42"/>
       <c r="E71" s="15"/>
@@ -5545,13 +5564,13 @@
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A72" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D72" s="42"/>
       <c r="E72" s="15"/>
@@ -5593,10 +5612,10 @@
     <row r="73" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A73" s="47"/>
       <c r="B73" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" s="42"/>
       <c r="E73" s="15"/>
@@ -5639,7 +5658,7 @@
       <c r="A74" s="47"/>
       <c r="B74" s="47"/>
       <c r="C74" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" s="42"/>
       <c r="E74" s="15"/>
@@ -5680,13 +5699,13 @@
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A75" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="15"/>
@@ -5729,7 +5748,7 @@
       <c r="A76" s="47"/>
       <c r="B76" s="47"/>
       <c r="C76" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" s="42"/>
       <c r="E76" s="15"/>
@@ -5772,7 +5791,7 @@
       <c r="A77" s="47"/>
       <c r="B77" s="47"/>
       <c r="C77" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" s="42"/>
       <c r="E77" s="15"/>
@@ -5815,7 +5834,7 @@
       <c r="A78" s="47"/>
       <c r="B78" s="47"/>
       <c r="C78" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" s="42"/>
       <c r="E78" s="15"/>
@@ -5856,13 +5875,13 @@
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A79" s="47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="15"/>
@@ -5906,7 +5925,7 @@
       <c r="A80" s="47"/>
       <c r="B80" s="47"/>
       <c r="C80" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="15"/>
@@ -5949,7 +5968,7 @@
       <c r="A81" s="47"/>
       <c r="B81" s="47"/>
       <c r="C81" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" s="42"/>
       <c r="E81" s="15"/>
@@ -5990,13 +6009,13 @@
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A82" s="47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" s="42"/>
       <c r="E82" s="15"/>
@@ -6038,9 +6057,9 @@
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A83" s="47"/>
-      <c r="B83" s="46"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D83" s="42"/>
       <c r="E83" s="15"/>
@@ -6124,11 +6143,11 @@
       <c r="AN84" s="22"/>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A85" s="49" t="s">
-        <v>127</v>
+      <c r="A85" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -6172,7 +6191,7 @@
     <row r="86" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A86" s="47"/>
       <c r="B86" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -6215,43 +6234,13 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="AL49:AN49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AH49"/>
-    <mergeCell ref="AI49:AK49"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B26:B33"/>
     <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="AL3:AN3"/>
     <mergeCell ref="A5:A20"/>
@@ -6267,13 +6256,43 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="AL49:AN49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF49:AH49"/>
+    <mergeCell ref="AI49:AK49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A85:A86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6303,88 +6322,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="A1" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D3" s="39"/>
-      <c r="E3" s="55">
+      <c r="E3" s="58">
         <v>44562</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="54">
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="57">
         <v>44593</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57">
         <v>44621</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="57">
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="60">
         <v>44652</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57">
         <v>44682</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54">
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57">
         <v>44713</v>
       </c>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54">
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57">
         <v>44743</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54">
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57">
         <v>44774</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54">
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57">
         <v>44805</v>
       </c>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54">
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57">
         <v>44835</v>
       </c>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54">
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57">
         <v>44866</v>
       </c>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54">
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57">
         <v>44896</v>
       </c>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4" s="53"/>
@@ -6501,14 +6520,14 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A5" s="49" t="s">
-        <v>112</v>
+      <c r="A5" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="30"/>
@@ -6552,7 +6571,7 @@
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="32"/>
@@ -6596,7 +6615,7 @@
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="32"/>
@@ -6640,7 +6659,7 @@
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="32"/>
@@ -6683,10 +6702,10 @@
     <row r="9" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A9" s="47"/>
       <c r="B9" s="44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="15"/>
@@ -6727,9 +6746,9 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A10" s="47"/>
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="15"/>
@@ -6770,9 +6789,9 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A11" s="47"/>
-      <c r="B11" s="45"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="15"/>
@@ -6813,9 +6832,9 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A12" s="47"/>
-      <c r="B12" s="45"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="15"/>
@@ -6856,9 +6875,9 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A13" s="47"/>
-      <c r="B13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="15"/>
@@ -6899,9 +6918,9 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A14" s="47"/>
-      <c r="B14" s="45"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="15"/>
@@ -6942,9 +6961,9 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A15" s="47"/>
-      <c r="B15" s="45"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="15"/>
@@ -6985,9 +7004,9 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A16" s="47"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="15"/>
@@ -7028,9 +7047,9 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A17" s="47"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="15"/>
@@ -7071,9 +7090,9 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A18" s="47"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="15"/>
@@ -7114,9 +7133,9 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A19" s="47"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="15"/>
@@ -7157,9 +7176,9 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A20" s="47"/>
-      <c r="B20" s="46"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="15"/>
@@ -7200,13 +7219,13 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" s="47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="15"/>
@@ -7247,7 +7266,7 @@
       <c r="A22" s="47"/>
       <c r="B22" s="47"/>
       <c r="C22" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="15"/>
@@ -7287,7 +7306,7 @@
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="15"/>
@@ -7327,7 +7346,7 @@
       <c r="A24" s="47"/>
       <c r="B24" s="47"/>
       <c r="C24" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="15"/>
@@ -7366,10 +7385,10 @@
     <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25" s="47"/>
       <c r="B25" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="15"/>
@@ -7408,10 +7427,10 @@
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26" s="47"/>
       <c r="B26" s="47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="15"/>
@@ -7454,7 +7473,7 @@
       <c r="A27" s="47"/>
       <c r="B27" s="47"/>
       <c r="C27" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="15"/>
@@ -7497,7 +7516,7 @@
       <c r="A28" s="47"/>
       <c r="B28" s="47"/>
       <c r="C28" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="15"/>
@@ -7540,7 +7559,7 @@
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="C29" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="15"/>
@@ -7583,7 +7602,7 @@
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
       <c r="C30" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="15"/>
@@ -7626,7 +7645,7 @@
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="15"/>
@@ -7669,7 +7688,7 @@
       <c r="A32" s="47"/>
       <c r="B32" s="47"/>
       <c r="C32" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="15"/>
@@ -7712,7 +7731,7 @@
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="15"/>
@@ -7753,13 +7772,13 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A34" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="15"/>
@@ -7799,13 +7818,13 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A35" s="44" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D35" s="42"/>
       <c r="E35" s="15"/>
@@ -7843,10 +7862,10 @@
       <c r="AN35" s="22"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="15"/>
@@ -7884,10 +7903,10 @@
       <c r="AN36" s="22"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="15"/>
@@ -7925,10 +7944,10 @@
       <c r="AN37" s="22"/>
     </row>
     <row r="38" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D38" s="42"/>
       <c r="E38" s="15"/>
@@ -7966,9 +7985,9 @@
       <c r="AN38" s="22"/>
     </row>
     <row r="39" spans="1:40" ht="51" x14ac:dyDescent="0.45">
-      <c r="A39" s="46"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="42"/>
@@ -8006,10 +8025,10 @@
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="42"/>
@@ -8051,8 +8070,8 @@
       <c r="AN40" s="22"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A41" s="49" t="s">
-        <v>124</v>
+      <c r="A41" s="46" t="s">
+        <v>119</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>2</v>
@@ -8097,7 +8116,7 @@
       <c r="AN41" s="22"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A42" s="49"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="12" t="s">
         <v>1</v>
       </c>
@@ -8136,10 +8155,10 @@
     </row>
     <row r="43" spans="1:40" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="40"/>
@@ -8181,11 +8200,11 @@
       <c r="AN43" s="22"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A44" s="49" t="s">
-        <v>127</v>
+      <c r="A44" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -8228,7 +8247,7 @@
     <row r="45" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A45" s="47"/>
       <c r="B45" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -8309,6 +8328,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B35:B38"/>
@@ -8319,22 +8354,6 @@
     <mergeCell ref="A21:A33"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B26:B33"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8364,88 +8383,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="A1" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D3" s="39"/>
-      <c r="E3" s="59">
+      <c r="E3" s="51">
         <v>44927</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="58">
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="50">
         <v>44562</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50">
         <v>44621</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="60">
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="52">
         <v>44652</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58">
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50">
         <v>44682</v>
       </c>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58">
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50">
         <v>44713</v>
       </c>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58">
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50">
         <v>44743</v>
       </c>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58">
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50">
         <v>44774</v>
       </c>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58">
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50">
         <v>44805</v>
       </c>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58">
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50">
         <v>44835</v>
       </c>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58">
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50">
         <v>44866</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50">
         <v>44896</v>
       </c>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A4" s="53"/>
@@ -8563,13 +8582,13 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A5" s="47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="9"/>
@@ -8611,10 +8630,10 @@
     <row r="6" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A6" s="47"/>
       <c r="B6" s="47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="9"/>
@@ -8656,7 +8675,7 @@
     <row r="7" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A7" s="47"/>
       <c r="B7" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="42"/>
@@ -8698,13 +8717,13 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="26"/>
@@ -8746,13 +8765,13 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A9" s="44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="9"/>
@@ -8792,10 +8811,10 @@
       <c r="AN9" s="22"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A10" s="45"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="9"/>
@@ -8833,10 +8852,10 @@
       <c r="AN10" s="22"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="9"/>
@@ -8875,9 +8894,9 @@
       <c r="AN11" s="22"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="42"/>
@@ -8917,12 +8936,12 @@
       <c r="AN12" s="22"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="9"/>
@@ -8962,10 +8981,10 @@
       <c r="AN13" s="22"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="9"/>
@@ -9005,13 +9024,13 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A15" s="44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="9"/>
@@ -9051,10 +9070,10 @@
       <c r="AN15" s="22"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="9"/>
@@ -9094,10 +9113,10 @@
       <c r="AN16" s="22"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="9"/>
@@ -9137,10 +9156,10 @@
       <c r="AN17" s="22"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="9"/>
@@ -9180,10 +9199,10 @@
       <c r="AN18" s="22"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="9"/>
@@ -9223,10 +9242,10 @@
       <c r="AN19" s="22"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="9"/>
@@ -9266,9 +9285,9 @@
       <c r="AN20" s="22"/>
     </row>
     <row r="21" spans="1:40" ht="51" x14ac:dyDescent="0.45">
-      <c r="A21" s="46"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="42"/>
@@ -9310,13 +9329,13 @@
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A22" s="44" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="9"/>
@@ -9356,10 +9375,10 @@
       <c r="AN22" s="22"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="9"/>
@@ -9399,10 +9418,10 @@
       <c r="AN23" s="22"/>
     </row>
     <row r="24" spans="1:40" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="9"/>
@@ -9443,13 +9462,13 @@
     </row>
     <row r="25" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="9"/>
@@ -9491,13 +9510,13 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="9"/>
@@ -9539,10 +9558,10 @@
     <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27" s="47"/>
       <c r="B27" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="9"/>
@@ -9585,7 +9604,7 @@
       <c r="A28" s="47"/>
       <c r="B28" s="47"/>
       <c r="C28" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="9"/>
@@ -9626,13 +9645,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="9"/>
@@ -9675,7 +9694,7 @@
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
       <c r="C30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="9"/>
@@ -9718,7 +9737,7 @@
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="9"/>
@@ -9761,7 +9780,7 @@
       <c r="A32" s="47"/>
       <c r="B32" s="47"/>
       <c r="C32" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="9"/>
@@ -9802,13 +9821,13 @@
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A33" s="47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="9"/>
@@ -9852,7 +9871,7 @@
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="9"/>
@@ -9895,7 +9914,7 @@
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="42"/>
       <c r="E35" s="9"/>
@@ -9936,13 +9955,13 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A36" s="47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="9"/>
@@ -9984,9 +10003,9 @@
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A37" s="47"/>
-      <c r="B37" s="46"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="9"/>
@@ -10070,11 +10089,11 @@
       <c r="AN38" s="22"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A39" s="49" t="s">
-        <v>127</v>
+      <c r="A39" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -10118,7 +10137,7 @@
     <row r="40" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A40" s="47"/>
       <c r="B40" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -10199,6 +10218,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5"/>
@@ -10215,25 +10253,6 @@
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10264,22 +10283,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="A1" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="61"/>
       <c r="F1" s="63"/>
       <c r="G1" s="61"/>
       <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="62"/>
       <c r="F2" s="64"/>
       <c r="G2" s="62"/>
@@ -10287,148 +10306,148 @@
     </row>
     <row r="3" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G3" s="67"/>
       <c r="H3" s="68" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I3" s="39"/>
-      <c r="J3" s="55">
+      <c r="J3" s="58">
         <v>44562</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="54">
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="57">
         <v>44593</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54">
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57">
         <v>44621</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="57">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="60">
         <v>44652</v>
       </c>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54">
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57">
         <v>44682</v>
       </c>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54">
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57">
         <v>44713</v>
       </c>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54">
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57">
         <v>44743</v>
       </c>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54">
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57">
         <v>44774</v>
       </c>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54">
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57">
         <v>44805</v>
       </c>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54">
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57">
         <v>44835</v>
       </c>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54">
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57">
         <v>44866</v>
       </c>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54">
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57">
         <v>44896</v>
       </c>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="59">
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="51">
         <v>44927</v>
       </c>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="58">
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="50">
         <v>44562</v>
       </c>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="58">
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50">
         <v>44621</v>
       </c>
-      <c r="BA3" s="58"/>
-      <c r="BB3" s="58"/>
-      <c r="BC3" s="60">
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="52">
         <v>44652</v>
       </c>
-      <c r="BD3" s="58"/>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="58">
+      <c r="BD3" s="50"/>
+      <c r="BE3" s="50"/>
+      <c r="BF3" s="50">
         <v>44682</v>
       </c>
-      <c r="BG3" s="58"/>
-      <c r="BH3" s="58"/>
-      <c r="BI3" s="58">
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="50">
         <v>44713</v>
       </c>
-      <c r="BJ3" s="58"/>
-      <c r="BK3" s="58"/>
-      <c r="BL3" s="58">
+      <c r="BJ3" s="50"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="50">
         <v>44743</v>
       </c>
-      <c r="BM3" s="58"/>
-      <c r="BN3" s="58"/>
-      <c r="BO3" s="58">
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="50"/>
+      <c r="BO3" s="50">
         <v>44774</v>
       </c>
-      <c r="BP3" s="58"/>
-      <c r="BQ3" s="58"/>
-      <c r="BR3" s="58">
+      <c r="BP3" s="50"/>
+      <c r="BQ3" s="50"/>
+      <c r="BR3" s="50">
         <v>44805</v>
       </c>
-      <c r="BS3" s="58"/>
-      <c r="BT3" s="58"/>
-      <c r="BU3" s="58">
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="50"/>
+      <c r="BU3" s="50">
         <v>44835</v>
       </c>
-      <c r="BV3" s="58"/>
-      <c r="BW3" s="58"/>
-      <c r="BX3" s="58">
+      <c r="BV3" s="50"/>
+      <c r="BW3" s="50"/>
+      <c r="BX3" s="50">
         <v>44866</v>
       </c>
-      <c r="BY3" s="58"/>
-      <c r="BZ3" s="58"/>
-      <c r="CA3" s="58">
+      <c r="BY3" s="50"/>
+      <c r="BZ3" s="50"/>
+      <c r="CA3" s="50">
         <v>44896</v>
       </c>
-      <c r="CB3" s="58"/>
-      <c r="CC3" s="58"/>
+      <c r="CB3" s="50"/>
+      <c r="CC3" s="50"/>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A4" s="53"/>
@@ -10662,17 +10681,17 @@
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A5" s="49" t="s">
-        <v>112</v>
+      <c r="A5" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -10760,10 +10779,10 @@
       <c r="A6" s="47"/>
       <c r="B6" s="47"/>
       <c r="C6" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
@@ -10851,10 +10870,10 @@
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
@@ -10942,10 +10961,10 @@
       <c r="A8" s="47"/>
       <c r="B8" s="47"/>
       <c r="C8" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
@@ -11032,13 +11051,13 @@
     <row r="9" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A9" s="47"/>
       <c r="B9" s="44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -11123,12 +11142,12 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A10" s="47"/>
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
@@ -11213,12 +11232,12 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A11" s="47"/>
-      <c r="B11" s="45"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E11" s="12">
         <v>1</v>
@@ -11303,12 +11322,12 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A12" s="47"/>
-      <c r="B12" s="45"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E12" s="12">
         <v>1</v>
@@ -11393,12 +11412,12 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A13" s="47"/>
-      <c r="B13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E13" s="12">
         <v>1</v>
@@ -11483,12 +11502,12 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A14" s="47"/>
-      <c r="B14" s="45"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E14" s="12">
         <v>1</v>
@@ -11573,12 +11592,12 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A15" s="47"/>
-      <c r="B15" s="45"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E15" s="12">
         <v>1</v>
@@ -11663,12 +11682,12 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A16" s="47"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E16" s="12">
         <v>1</v>
@@ -11753,12 +11772,12 @@
     </row>
     <row r="17" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A17" s="47"/>
-      <c r="B17" s="45"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E17" s="12">
         <v>1</v>
@@ -11843,12 +11862,12 @@
     </row>
     <row r="18" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A18" s="47"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E18" s="12">
         <v>1</v>
@@ -11933,12 +11952,12 @@
     </row>
     <row r="19" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A19" s="47"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E19" s="12">
         <v>1</v>
@@ -12023,12 +12042,12 @@
     </row>
     <row r="20" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A20" s="47"/>
-      <c r="B20" s="46"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E20" s="12">
         <v>1</v>
@@ -12113,16 +12132,16 @@
     </row>
     <row r="21" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A21" s="47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E21" s="12">
         <v>1</v>
@@ -12207,10 +12226,10 @@
       <c r="A22" s="47"/>
       <c r="B22" s="47"/>
       <c r="C22" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E22" s="12">
         <v>3</v>
@@ -12294,10 +12313,10 @@
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E23" s="12">
         <v>3</v>
@@ -12378,10 +12397,10 @@
       <c r="A24" s="47"/>
       <c r="B24" s="47"/>
       <c r="C24" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -12465,10 +12484,10 @@
       <c r="A25" s="47"/>
       <c r="B25" s="47"/>
       <c r="C25" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -12551,13 +12570,13 @@
     <row r="26" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A26" s="47"/>
       <c r="B26" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -12640,13 +12659,13 @@
     <row r="27" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A27" s="47"/>
       <c r="B27" s="47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E27" s="12">
         <v>1</v>
@@ -12733,10 +12752,10 @@
       <c r="A28" s="47"/>
       <c r="B28" s="47"/>
       <c r="C28" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E28" s="12">
         <v>3</v>
@@ -12823,10 +12842,10 @@
       <c r="A29" s="47"/>
       <c r="B29" s="47"/>
       <c r="C29" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E29" s="12">
         <v>4</v>
@@ -12910,10 +12929,10 @@
       <c r="A30" s="47"/>
       <c r="B30" s="47"/>
       <c r="C30" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E30" s="12">
         <v>4</v>
@@ -13000,10 +13019,10 @@
       <c r="A31" s="47"/>
       <c r="B31" s="47"/>
       <c r="C31" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E31" s="12">
         <v>2</v>
@@ -13090,10 +13109,10 @@
       <c r="A32" s="47"/>
       <c r="B32" s="47"/>
       <c r="C32" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E32" s="12">
         <v>2</v>
@@ -13180,10 +13199,10 @@
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E33" s="12">
         <v>2</v>
@@ -13270,10 +13289,10 @@
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E34" s="12">
         <v>2</v>
@@ -13360,10 +13379,10 @@
       <c r="A35" s="47"/>
       <c r="B35" s="47"/>
       <c r="C35" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E35" s="12">
         <v>2</v>
@@ -13449,11 +13468,11 @@
     <row r="36" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A36" s="47"/>
       <c r="B36" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E36" s="12">
         <v>4</v>
@@ -13538,16 +13557,16 @@
     </row>
     <row r="37" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A37" s="47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E37" s="12">
         <v>1</v>
@@ -13632,13 +13651,13 @@
     <row r="38" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A38" s="47"/>
       <c r="B38" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E38" s="12">
         <v>2</v>
@@ -13724,16 +13743,16 @@
     </row>
     <row r="39" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A39" s="44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E39" s="12">
         <v>3</v>
@@ -13817,13 +13836,13 @@
       <c r="CC39" s="22"/>
     </row>
     <row r="40" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A40" s="45"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E40" s="12">
         <v>4</v>
@@ -13905,13 +13924,13 @@
       <c r="CC40" s="22"/>
     </row>
     <row r="41" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E41" s="12">
         <v>3</v>
@@ -13994,13 +14013,13 @@
       <c r="CC41" s="22"/>
     </row>
     <row r="42" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A42" s="45"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E42" s="12">
         <v>2</v>
@@ -14083,15 +14102,15 @@
       <c r="CC42" s="22"/>
     </row>
     <row r="43" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E43" s="12">
         <v>3</v>
@@ -14175,13 +14194,13 @@
       <c r="CC43" s="22"/>
     </row>
     <row r="44" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E44" s="12">
         <v>3</v>
@@ -14264,15 +14283,15 @@
       <c r="CC44" s="22"/>
     </row>
     <row r="45" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A45" s="45"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E45" s="12">
         <v>1</v>
@@ -14354,13 +14373,13 @@
       <c r="CC45" s="22"/>
     </row>
     <row r="46" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E46" s="12">
         <v>2</v>
@@ -14442,13 +14461,13 @@
       <c r="CC46" s="22"/>
     </row>
     <row r="47" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E47" s="12">
         <v>1</v>
@@ -14530,13 +14549,13 @@
       <c r="CC47" s="22"/>
     </row>
     <row r="48" spans="1:81" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E48" s="12">
         <v>2</v>
@@ -14619,16 +14638,16 @@
     </row>
     <row r="49" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A49" s="44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E49" s="12">
         <v>3</v>
@@ -14712,13 +14731,13 @@
       <c r="CC49" s="22"/>
     </row>
     <row r="50" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E50" s="12">
         <v>3</v>
@@ -14802,13 +14821,13 @@
       <c r="CC50" s="22"/>
     </row>
     <row r="51" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E51" s="12">
         <v>2</v>
@@ -14892,13 +14911,13 @@
       <c r="CC51" s="22"/>
     </row>
     <row r="52" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E52" s="12">
         <v>3</v>
@@ -14982,13 +15001,13 @@
       <c r="CC52" s="22"/>
     </row>
     <row r="53" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E53" s="12">
         <v>3</v>
@@ -15072,13 +15091,13 @@
       <c r="CC53" s="22"/>
     </row>
     <row r="54" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A54" s="45"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E54" s="12">
         <v>4</v>
@@ -15162,13 +15181,13 @@
       <c r="CC54" s="22"/>
     </row>
     <row r="55" spans="1:81" ht="51" x14ac:dyDescent="0.45">
-      <c r="A55" s="46"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12">
@@ -15248,16 +15267,16 @@
     </row>
     <row r="56" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A56" s="44" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E56" s="12">
         <v>2</v>
@@ -15341,13 +15360,13 @@
       <c r="CC56" s="22"/>
     </row>
     <row r="57" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E57" s="12">
         <v>2</v>
@@ -15431,13 +15450,13 @@
       <c r="CC57" s="22"/>
     </row>
     <row r="58" spans="1:81" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E58" s="12">
         <v>2</v>
@@ -15522,16 +15541,16 @@
     </row>
     <row r="59" spans="1:81" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E59" s="12">
         <v>1</v>
@@ -15617,16 +15636,16 @@
     </row>
     <row r="60" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A60" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E60" s="12">
         <v>3</v>
@@ -15712,13 +15731,13 @@
     <row r="61" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A61" s="47"/>
       <c r="B61" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E61" s="12">
         <v>3</v>
@@ -15805,10 +15824,10 @@
       <c r="A62" s="47"/>
       <c r="B62" s="47"/>
       <c r="C62" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E62" s="12">
         <v>3</v>
@@ -15893,16 +15912,16 @@
     </row>
     <row r="63" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E63" s="12">
         <v>2</v>
@@ -15989,10 +16008,10 @@
       <c r="A64" s="47"/>
       <c r="B64" s="47"/>
       <c r="C64" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E64" s="12">
         <v>2</v>
@@ -16079,10 +16098,10 @@
       <c r="A65" s="47"/>
       <c r="B65" s="47"/>
       <c r="C65" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E65" s="12">
         <v>2</v>
@@ -16169,10 +16188,10 @@
       <c r="A66" s="47"/>
       <c r="B66" s="47"/>
       <c r="C66" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E66" s="12">
         <v>2</v>
@@ -16257,16 +16276,16 @@
     </row>
     <row r="67" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A67" s="47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E67" s="12">
         <v>1</v>
@@ -16354,10 +16373,10 @@
       <c r="A68" s="47"/>
       <c r="B68" s="47"/>
       <c r="C68" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E68" s="12">
         <v>2</v>
@@ -16444,10 +16463,10 @@
       <c r="A69" s="47"/>
       <c r="B69" s="47"/>
       <c r="C69" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E69" s="12">
         <v>2</v>
@@ -16532,16 +16551,16 @@
     </row>
     <row r="70" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A70" s="47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E70" s="12">
         <v>2</v>
@@ -16627,12 +16646,12 @@
     </row>
     <row r="71" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A71" s="47"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="E71" s="12">
         <v>2</v>
@@ -16719,11 +16738,11 @@
     <row r="72" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A72" s="47"/>
       <c r="B72" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E72" s="12">
         <v>3</v>
@@ -16808,15 +16827,15 @@
       <c r="CC72" s="22"/>
     </row>
     <row r="73" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A73" s="49" t="s">
-        <v>124</v>
+      <c r="A73" s="46" t="s">
+        <v>119</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E73" s="12">
         <v>1</v>
@@ -16901,13 +16920,13 @@
       <c r="CC73" s="22"/>
     </row>
     <row r="74" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A74" s="49"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E74" s="12">
         <v>2</v>
@@ -16988,14 +17007,14 @@
     </row>
     <row r="75" spans="1:81" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E75" s="12">
         <v>1</v>
@@ -17080,15 +17099,15 @@
       <c r="CC75" s="22"/>
     </row>
     <row r="76" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A76" s="49" t="s">
-        <v>127</v>
+      <c r="A76" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12">
@@ -17174,11 +17193,11 @@
     <row r="77" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A77" s="47"/>
       <c r="B77" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12">
@@ -17339,23 +17358,34 @@
   </sheetData>
   <autoFilter ref="D3:D77" xr:uid="{C1DB20E9-1172-406B-991C-E9E6D0F0C8A1}"/>
   <mergeCells count="61">
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="A49:A55"/>
     <mergeCell ref="B49:B54"/>
     <mergeCell ref="BX3:BZ3"/>
@@ -17372,34 +17402,23 @@
     <mergeCell ref="BO3:BQ3"/>
     <mergeCell ref="BR3:BT3"/>
     <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A73:A74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ViT_docs/ViT_Task 단위 모듈 설계_WBS 추가.xlsx
+++ b/ViT_docs/ViT_Task 단위 모듈 설계_WBS 추가.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\source\iitp\fork\visual-tool\ViT_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\visual-tool\ViT_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF4128-E996-42BC-8563-62DCC571A61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F349B3F0-EC33-4365-BDBC-632EEB507288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20480" yWindow="4680" windowWidth="14400" windowHeight="7470" xr2:uid="{FE70F081-2A33-4C8B-B788-31827E4A1C2F}"/>
+    <workbookView xWindow="12760" yWindow="3890" windowWidth="22680" windowHeight="16660" activeTab="1" xr2:uid="{FE70F081-2A33-4C8B-B788-31827E4A1C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Task단위 모듈" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="WBS(2,3차년도)_List" sheetId="15" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'WBS(2,3차년도)_List'!$D$3:$D$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'WBS(2,3차년도)_List'!$D$3:$D$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="142">
   <si>
     <t>테스트 환경 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,11 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Toubo Graph++
- 환경설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UnitTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,6 +599,24 @@
   </si>
   <si>
     <t>Unit Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gephi Toolkit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Lib 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gephi Toolkit + 
+UI Lib 모듈화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turbo Graph++
+ 환경설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,35 +1005,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,6 +1042,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,6 +1057,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1068,6 +1093,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1387,8 +1418,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
@@ -1416,10 +1447,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1428,32 +1459,32 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1462,88 +1493,88 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="4" t="s">
         <v>80</v>
       </c>
@@ -1564,10 +1595,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="51" t="s">
         <v>116</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1576,39 +1607,39 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="47"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="4" t="s">
         <v>117</v>
       </c>
@@ -1618,8 +1649,8 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1628,8 +1659,8 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
@@ -1638,87 +1669,87 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="47"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="4" t="s">
         <v>60</v>
       </c>
@@ -1740,7 +1771,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="51" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -1752,7 +1783,7 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="47"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="5" t="s">
         <v>56</v>
       </c>
@@ -1776,13 +1807,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="48" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -1790,56 +1821,56 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="4" t="s">
         <v>32</v>
       </c>
@@ -1848,9 +1879,9 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48" t="s">
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -1858,25 +1889,25 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="48"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="48"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="48"/>
-      <c r="B53" s="44" t="s">
-        <v>135</v>
+      <c r="A53" s="49"/>
+      <c r="B53" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>29</v>
@@ -1884,16 +1915,16 @@
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="48"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="48"/>
-      <c r="B55" s="44" t="s">
+      <c r="A55" s="49"/>
+      <c r="B55" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -1902,24 +1933,24 @@
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="4" t="s">
         <v>47</v>
       </c>
@@ -1940,10 +1971,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -1952,47 +1983,47 @@
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="48"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" s="48"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A66" s="45"/>
+      <c r="A66" s="50"/>
       <c r="B66" s="5" t="s">
         <v>27</v>
       </c>
@@ -2014,10 +2045,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="48" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -2026,37 +2057,37 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="49"/>
       <c r="C69" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="48"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="44" t="s">
+      <c r="A70" s="49"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
       <c r="D71" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -2078,10 +2109,10 @@
         <v>108</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D74" s="4"/>
     </row>
@@ -2100,21 +2131,21 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="51" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="51"/>
+      <c r="B77" s="51" t="s">
         <v>133</v>
-      </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" s="47"/>
-      <c r="B77" s="47" t="s">
-        <v>134</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>15</v>
@@ -2122,8 +2153,8 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="4" t="s">
         <v>14</v>
       </c>
@@ -2144,11 +2175,11 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="47" t="s">
-        <v>132</v>
+      <c r="B80" s="51" t="s">
+        <v>131</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>12</v>
@@ -2156,24 +2187,24 @@
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="51"/>
       <c r="C82" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="51"/>
       <c r="C83" s="4" t="s">
         <v>9</v>
       </c>
@@ -2194,11 +2225,11 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="47" t="s">
-        <v>132</v>
+      <c r="B85" s="51" t="s">
+        <v>131</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>6</v>
@@ -2206,9 +2237,9 @@
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="47" t="s">
+      <c r="A86" s="51"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="4" t="s">
@@ -2216,17 +2247,17 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
       <c r="D87" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47" t="s">
+      <c r="A88" s="51"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="4" t="s">
@@ -2234,11 +2265,11 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
       <c r="D89" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
@@ -2256,10 +2287,10 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="44" t="s">
+      <c r="B91" s="48" t="s">
         <v>99</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -2268,15 +2299,15 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" s="47"/>
-      <c r="B92" s="45"/>
+      <c r="A92" s="51"/>
+      <c r="B92" s="50"/>
       <c r="C92" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" s="47"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="4" t="s">
         <v>26</v>
       </c>
@@ -2298,7 +2329,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="53" t="s">
         <v>118</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -2308,7 +2339,7 @@
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96" s="46"/>
+      <c r="A96" s="53"/>
       <c r="B96" s="4" t="s">
         <v>1</v>
       </c>
@@ -2334,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -2354,25 +2385,45 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A100" s="44" t="s">
-        <v>128</v>
+      <c r="A100" s="48" t="s">
+        <v>127</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A101" s="45"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A58"/>
+    <mergeCell ref="B42:B51"/>
     <mergeCell ref="C42:C48"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="B53:B54"/>
@@ -2383,26 +2434,6 @@
     <mergeCell ref="A19:A37"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B25:B36"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A58"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2412,13 +2443,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857D98ED-DEB9-4B31-8708-796DE8F89889}">
-  <dimension ref="A1:AN86"/>
+  <dimension ref="A1:AN87"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2444,81 +2475,81 @@
       <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="57" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="39"/>
-      <c r="E3" s="58">
+      <c r="E3" s="59">
         <v>44562</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="57">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58">
         <v>44593</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57">
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58">
         <v>44621</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="60">
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="61">
         <v>44652</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58">
         <v>44682</v>
       </c>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57">
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58">
         <v>44713</v>
       </c>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57">
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58">
         <v>44743</v>
       </c>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57">
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58">
         <v>44774</v>
       </c>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57">
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58">
         <v>44805</v>
       </c>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57">
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58">
         <v>44835</v>
       </c>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57">
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58">
         <v>44866</v>
       </c>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58">
         <v>44896</v>
       </c>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="40"/>
       <c r="E4" s="34">
         <v>10</v>
@@ -2630,10 +2661,10 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="51" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -2642,11 +2673,11 @@
       <c r="D5" s="41"/>
       <c r="E5" s="30"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
@@ -2678,20 +2709,20 @@
       <c r="AN5" s="21"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="32"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -2722,20 +2753,20 @@
       <c r="AN6" s="22"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="12" t="s">
         <v>97</v>
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="32"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -2766,20 +2797,20 @@
       <c r="AN7" s="22"/>
     </row>
     <row r="8" spans="1:40" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="12" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="32"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="27"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -2810,15 +2841,15 @@
       <c r="AN8" s="22"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A9" s="47"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D9" s="42"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -2845,6 +2876,7 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
       <c r="AE9" s="16"/>
+      <c r="AF9" s="46"/>
       <c r="AG9" s="27"/>
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
@@ -2855,13 +2887,13 @@
       <c r="AN9" s="22"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="42"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -2888,6 +2920,7 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
+      <c r="AF10" s="46"/>
       <c r="AG10" s="27"/>
       <c r="AH10" s="16"/>
       <c r="AI10" s="16"/>
@@ -2898,13 +2931,13 @@
       <c r="AN10" s="22"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D11" s="42"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -2931,6 +2964,7 @@
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="16"/>
+      <c r="AF11" s="46"/>
       <c r="AG11" s="27"/>
       <c r="AH11" s="16"/>
       <c r="AI11" s="16"/>
@@ -2941,13 +2975,13 @@
       <c r="AN11" s="22"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="42"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -2974,6 +3008,7 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
+      <c r="AF12" s="46"/>
       <c r="AG12" s="16"/>
       <c r="AH12" s="16"/>
       <c r="AI12" s="16"/>
@@ -2984,13 +3019,13 @@
       <c r="AN12" s="22"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="42"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -3017,6 +3052,7 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
+      <c r="AF13" s="46"/>
       <c r="AG13" s="27"/>
       <c r="AH13" s="16"/>
       <c r="AI13" s="16"/>
@@ -3027,13 +3063,13 @@
       <c r="AN13" s="22"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D14" s="42"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -3060,6 +3096,7 @@
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
+      <c r="AF14" s="46"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="16"/>
@@ -3070,13 +3107,13 @@
       <c r="AN14" s="22"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="42"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -3103,6 +3140,7 @@
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
+      <c r="AF15" s="46"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="27"/>
       <c r="AI15" s="16"/>
@@ -3113,13 +3151,13 @@
       <c r="AN15" s="22"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="42"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -3146,6 +3184,7 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
+      <c r="AF16" s="46"/>
       <c r="AG16" s="16"/>
       <c r="AH16" s="16"/>
       <c r="AI16" s="27"/>
@@ -3156,13 +3195,13 @@
       <c r="AN16" s="22"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D17" s="42"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -3189,6 +3228,7 @@
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
+      <c r="AF17" s="46"/>
       <c r="AG17" s="16"/>
       <c r="AH17" s="16"/>
       <c r="AI17" s="27"/>
@@ -3199,13 +3239,13 @@
       <c r="AN17" s="22"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="42"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -3232,6 +3272,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="16"/>
+      <c r="AF18" s="46"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="27"/>
@@ -3242,13 +3283,13 @@
       <c r="AN18" s="22"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="42"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -3275,6 +3316,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="16"/>
+      <c r="AF19" s="46"/>
       <c r="AG19" s="16"/>
       <c r="AH19" s="16"/>
       <c r="AI19" s="27"/>
@@ -3285,13 +3327,13 @@
       <c r="AN19" s="22"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A20" s="47"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="42"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -3318,6 +3360,7 @@
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
       <c r="AE20" s="16"/>
+      <c r="AF20" s="46"/>
       <c r="AG20" s="16"/>
       <c r="AH20" s="16"/>
       <c r="AI20" s="27"/>
@@ -3328,22 +3371,25 @@
       <c r="AN20" s="22"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="51" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="42"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
       <c r="N21" s="16"/>
       <c r="O21" s="27"/>
       <c r="P21" s="16"/>
@@ -3373,18 +3419,21 @@
       <c r="AN21" s="22"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="42"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
@@ -3406,6 +3455,7 @@
       <c r="AF22" s="16"/>
       <c r="AG22" s="16"/>
       <c r="AH22" s="16"/>
+      <c r="AI22" s="46"/>
       <c r="AJ22" s="16"/>
       <c r="AK22" s="16"/>
       <c r="AL22" s="27"/>
@@ -3413,18 +3463,21 @@
       <c r="AN22" s="22"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="12" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="42"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="16"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
@@ -3446,6 +3499,7 @@
       <c r="AF23" s="16"/>
       <c r="AG23" s="16"/>
       <c r="AH23" s="16"/>
+      <c r="AI23" s="46"/>
       <c r="AJ23" s="16"/>
       <c r="AK23" s="16"/>
       <c r="AL23" s="16"/>
@@ -3453,18 +3507,21 @@
       <c r="AN23" s="22"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="42"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
       <c r="N24" s="16"/>
       <c r="O24" s="27"/>
       <c r="P24" s="16"/>
@@ -3486,6 +3543,7 @@
       <c r="AF24" s="16"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="16"/>
+      <c r="AI24" s="46"/>
       <c r="AJ24" s="16"/>
       <c r="AK24" s="16"/>
       <c r="AL24" s="16"/>
@@ -3493,7 +3551,7 @@
       <c r="AN24" s="22"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A25" s="47"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="12" t="s">
         <v>72</v>
       </c>
@@ -3501,12 +3559,15 @@
         <v>57</v>
       </c>
       <c r="D25" s="42"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="16"/>
       <c r="O25" s="27"/>
       <c r="P25" s="16"/>
@@ -3528,6 +3589,7 @@
       <c r="AF25" s="16"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="16"/>
+      <c r="AI25" s="46"/>
       <c r="AJ25" s="16"/>
       <c r="AK25" s="16"/>
       <c r="AL25" s="16"/>
@@ -3535,15 +3597,15 @@
       <c r="AN25" s="22"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="42"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -3573,6 +3635,7 @@
       <c r="AF26" s="16"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="16"/>
+      <c r="AI26" s="46"/>
       <c r="AJ26" s="27"/>
       <c r="AK26" s="16"/>
       <c r="AL26" s="16"/>
@@ -3580,13 +3643,13 @@
       <c r="AN26" s="22"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="42"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -3616,6 +3679,7 @@
       <c r="AF27" s="16"/>
       <c r="AG27" s="16"/>
       <c r="AH27" s="16"/>
+      <c r="AI27" s="46"/>
       <c r="AJ27" s="27"/>
       <c r="AK27" s="27"/>
       <c r="AL27" s="16"/>
@@ -3623,13 +3687,13 @@
       <c r="AN27" s="22"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="42"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
@@ -3659,6 +3723,7 @@
       <c r="AF28" s="16"/>
       <c r="AG28" s="16"/>
       <c r="AH28" s="16"/>
+      <c r="AI28" s="46"/>
       <c r="AJ28" s="16"/>
       <c r="AK28" s="27"/>
       <c r="AL28" s="16"/>
@@ -3666,13 +3731,13 @@
       <c r="AN28" s="22"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="42"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -3702,6 +3767,7 @@
       <c r="AF29" s="16"/>
       <c r="AG29" s="16"/>
       <c r="AH29" s="16"/>
+      <c r="AI29" s="46"/>
       <c r="AJ29" s="16"/>
       <c r="AK29" s="27"/>
       <c r="AL29" s="16"/>
@@ -3709,13 +3775,13 @@
       <c r="AN29" s="22"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="42"/>
-      <c r="E30" s="15"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
@@ -3745,6 +3811,7 @@
       <c r="AF30" s="16"/>
       <c r="AG30" s="16"/>
       <c r="AH30" s="16"/>
+      <c r="AI30" s="46"/>
       <c r="AJ30" s="16"/>
       <c r="AK30" s="16"/>
       <c r="AL30" s="27"/>
@@ -3752,13 +3819,13 @@
       <c r="AN30" s="22"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="42"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -3788,6 +3855,7 @@
       <c r="AF31" s="16"/>
       <c r="AG31" s="16"/>
       <c r="AH31" s="16"/>
+      <c r="AI31" s="46"/>
       <c r="AJ31" s="16"/>
       <c r="AK31" s="16"/>
       <c r="AL31" s="27"/>
@@ -3795,13 +3863,13 @@
       <c r="AN31" s="22"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="42"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -3831,6 +3899,7 @@
       <c r="AF32" s="16"/>
       <c r="AG32" s="16"/>
       <c r="AH32" s="16"/>
+      <c r="AI32" s="46"/>
       <c r="AJ32" s="16"/>
       <c r="AK32" s="16"/>
       <c r="AL32" s="27"/>
@@ -3838,13 +3907,13 @@
       <c r="AN32" s="22"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="42"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -3874,6 +3943,7 @@
       <c r="AF33" s="16"/>
       <c r="AG33" s="16"/>
       <c r="AH33" s="16"/>
+      <c r="AI33" s="46"/>
       <c r="AJ33" s="16"/>
       <c r="AK33" s="16"/>
       <c r="AL33" s="27"/>
@@ -3891,7 +3961,7 @@
         <v>57</v>
       </c>
       <c r="D34" s="42"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -3899,6 +3969,8 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
       <c r="O34" s="16"/>
       <c r="P34" s="27"/>
       <c r="Q34" s="16"/>
@@ -3927,17 +3999,17 @@
       <c r="AN34" s="22"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A35" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="42"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -3957,12 +4029,15 @@
       <c r="V35" s="16"/>
       <c r="W35" s="27"/>
       <c r="X35" s="27"/>
+      <c r="Y35" s="46"/>
       <c r="Z35" s="16"/>
       <c r="AA35" s="16"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="16"/>
       <c r="AD35" s="16"/>
       <c r="AE35" s="16"/>
+      <c r="AF35" s="46"/>
+      <c r="AG35" s="46"/>
       <c r="AH35" s="16"/>
       <c r="AI35" s="16"/>
       <c r="AJ35" s="16"/>
@@ -3972,13 +4047,13 @@
       <c r="AN35" s="22"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="42"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -4004,6 +4079,9 @@
       <c r="AB36" s="27"/>
       <c r="AC36" s="16"/>
       <c r="AD36" s="16"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="46"/>
       <c r="AH36" s="16"/>
       <c r="AI36" s="16"/>
       <c r="AJ36" s="16"/>
@@ -4013,13 +4091,13 @@
       <c r="AN36" s="22"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="42"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -4045,6 +4123,9 @@
       <c r="AB37" s="16"/>
       <c r="AC37" s="16"/>
       <c r="AD37" s="16"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46"/>
+      <c r="AG37" s="46"/>
       <c r="AH37" s="16"/>
       <c r="AI37" s="16"/>
       <c r="AJ37" s="16"/>
@@ -4054,13 +4135,13 @@
       <c r="AN37" s="22"/>
     </row>
     <row r="38" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="48"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="42"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -4086,6 +4167,9 @@
       <c r="AB38" s="16"/>
       <c r="AC38" s="27"/>
       <c r="AD38" s="27"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="46"/>
       <c r="AH38" s="16"/>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="16"/>
@@ -4094,24 +4178,27 @@
       <c r="AM38" s="16"/>
       <c r="AN38" s="22"/>
     </row>
-    <row r="39" spans="1:40" ht="51" x14ac:dyDescent="0.45">
-      <c r="A39" s="45"/>
-      <c r="B39" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="12"/>
+    <row r="39" spans="1:40" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="49"/>
+      <c r="B39" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="44"/>
       <c r="D39" s="42"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
@@ -4133,31 +4220,27 @@
       <c r="AM39" s="16"/>
       <c r="AN39" s="22"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A40" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>26</v>
-      </c>
+    <row r="40" spans="1:40" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="50"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="12"/>
       <c r="D40" s="42"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="46"/>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
       <c r="W40" s="16"/>
@@ -4167,9 +4250,9 @@
       <c r="AA40" s="16"/>
       <c r="AB40" s="16"/>
       <c r="AC40" s="16"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="27"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
       <c r="AG40" s="16"/>
       <c r="AH40" s="16"/>
       <c r="AI40" s="16"/>
@@ -4180,17 +4263,17 @@
       <c r="AN40" s="22"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A41" s="46" t="s">
-        <v>119</v>
+      <c r="A41" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="42"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
@@ -4213,9 +4296,9 @@
       <c r="AA41" s="16"/>
       <c r="AB41" s="16"/>
       <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="27"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="16"/>
       <c r="AI41" s="16"/>
@@ -4226,27 +4309,35 @@
       <c r="AN41" s="22"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A42" s="46"/>
+      <c r="A42" s="53" t="s">
+        <v>119</v>
+      </c>
       <c r="B42" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="42"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
       <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="27"/>
       <c r="L42" s="16"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
       <c r="Z42" s="16"/>
       <c r="AA42" s="16"/>
       <c r="AB42" s="16"/>
@@ -4263,36 +4354,34 @@
       <c r="AM42" s="16"/>
       <c r="AN42" s="22"/>
     </row>
-    <row r="43" spans="1:40" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>120</v>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A43" s="53"/>
+      <c r="B43" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="C43" s="12"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="26"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
       <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
       <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="46"/>
       <c r="Z43" s="16"/>
       <c r="AA43" s="16"/>
       <c r="AB43" s="16"/>
@@ -4309,21 +4398,21 @@
       <c r="AM43" s="16"/>
       <c r="AN43" s="22"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A44" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>121</v>
+    <row r="44" spans="1:40" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="15"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="27"/>
+      <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
+      <c r="J44" s="27"/>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
@@ -4345,349 +4434,351 @@
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
       <c r="AE44" s="16"/>
-      <c r="AG44" s="27"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
       <c r="AH44" s="16"/>
       <c r="AI44" s="16"/>
       <c r="AJ44" s="16"/>
       <c r="AK44" s="16"/>
-      <c r="AL44" s="27"/>
+      <c r="AL44" s="16"/>
       <c r="AM44" s="16"/>
       <c r="AN44" s="22"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A45" s="47"/>
+      <c r="A45" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="B45" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="24"/>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="24"/>
-      <c r="AD45" s="24"/>
-      <c r="AE45" s="24"/>
-      <c r="AF45" s="24"/>
-      <c r="AG45" s="24"/>
-      <c r="AH45" s="24"/>
-      <c r="AI45" s="24"/>
-      <c r="AJ45" s="24"/>
-      <c r="AK45" s="24"/>
-      <c r="AL45" s="33"/>
-      <c r="AM45" s="33"/>
-      <c r="AN45" s="43"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="46"/>
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="16"/>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="16"/>
+      <c r="AK45" s="16"/>
+      <c r="AL45" s="27"/>
+      <c r="AM45" s="27"/>
+      <c r="AN45" s="22"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16"/>
-      <c r="AE46" s="16"/>
-      <c r="AF46" s="16"/>
-      <c r="AG46" s="16"/>
-      <c r="AH46" s="16"/>
-      <c r="AI46" s="16"/>
-      <c r="AJ46" s="16"/>
-      <c r="AK46" s="16"/>
-      <c r="AL46" s="16"/>
-      <c r="AM46" s="16"/>
-      <c r="AN46" s="16"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="47"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="47"/>
+      <c r="AH46" s="47"/>
+      <c r="AI46" s="47"/>
+      <c r="AJ46" s="47"/>
+      <c r="AK46" s="47"/>
+      <c r="AL46" s="27"/>
+      <c r="AM46" s="27"/>
+      <c r="AN46" s="27"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A47" s="54" t="s">
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="16"/>
+      <c r="AI47" s="16"/>
+      <c r="AJ47" s="16"/>
+      <c r="AK47" s="16"/>
+      <c r="AL47" s="16"/>
+      <c r="AM47" s="16"/>
+      <c r="AN47" s="16"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A48" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A48" s="56"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A50" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B50" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C50" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="51">
+      <c r="D50" s="39"/>
+      <c r="E50" s="63">
         <v>44927</v>
       </c>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="50">
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="62">
         <v>44562</v>
       </c>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50">
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62">
         <v>44621</v>
       </c>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="52">
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="64">
         <v>44652</v>
       </c>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50">
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62">
         <v>44682</v>
       </c>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50">
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="62">
         <v>44713</v>
       </c>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50">
+      <c r="U50" s="62"/>
+      <c r="V50" s="62"/>
+      <c r="W50" s="62">
         <v>44743</v>
       </c>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="50"/>
-      <c r="Z49" s="50">
+      <c r="X50" s="62"/>
+      <c r="Y50" s="62"/>
+      <c r="Z50" s="62">
         <v>44774</v>
       </c>
-      <c r="AA49" s="50"/>
-      <c r="AB49" s="50"/>
-      <c r="AC49" s="50">
+      <c r="AA50" s="62"/>
+      <c r="AB50" s="62"/>
+      <c r="AC50" s="62">
         <v>44805</v>
       </c>
-      <c r="AD49" s="50"/>
-      <c r="AE49" s="50"/>
-      <c r="AF49" s="50">
+      <c r="AD50" s="62"/>
+      <c r="AE50" s="62"/>
+      <c r="AF50" s="62">
         <v>44835</v>
       </c>
-      <c r="AG49" s="50"/>
-      <c r="AH49" s="50"/>
-      <c r="AI49" s="50">
+      <c r="AG50" s="62"/>
+      <c r="AH50" s="62"/>
+      <c r="AI50" s="62">
         <v>44866</v>
       </c>
-      <c r="AJ49" s="50"/>
-      <c r="AK49" s="50"/>
-      <c r="AL49" s="50">
+      <c r="AJ50" s="62"/>
+      <c r="AK50" s="62"/>
+      <c r="AL50" s="62">
         <v>44896</v>
       </c>
-      <c r="AM49" s="50"/>
-      <c r="AN49" s="50"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="37">
+      <c r="AM50" s="62"/>
+      <c r="AN50" s="62"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="37">
         <v>10</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F51" s="37">
         <v>20</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G51" s="37">
         <v>30</v>
       </c>
-      <c r="H50" s="37">
+      <c r="H51" s="37">
         <v>10</v>
       </c>
-      <c r="I50" s="37">
+      <c r="I51" s="37">
         <v>20</v>
       </c>
-      <c r="J50" s="37">
+      <c r="J51" s="37">
         <v>30</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K51" s="37">
         <v>10</v>
       </c>
-      <c r="L50" s="37">
+      <c r="L51" s="37">
         <v>20</v>
       </c>
-      <c r="M50" s="37">
+      <c r="M51" s="37">
         <v>30</v>
       </c>
-      <c r="N50" s="38">
+      <c r="N51" s="38">
         <v>10</v>
       </c>
-      <c r="O50" s="37">
+      <c r="O51" s="37">
         <v>20</v>
       </c>
-      <c r="P50" s="37">
+      <c r="P51" s="37">
         <v>30</v>
       </c>
-      <c r="Q50" s="37">
+      <c r="Q51" s="37">
         <v>10</v>
       </c>
-      <c r="R50" s="37">
+      <c r="R51" s="37">
         <v>20</v>
       </c>
-      <c r="S50" s="37">
+      <c r="S51" s="37">
         <v>30</v>
       </c>
-      <c r="T50" s="37">
+      <c r="T51" s="37">
         <v>10</v>
       </c>
-      <c r="U50" s="37">
+      <c r="U51" s="37">
         <v>20</v>
       </c>
-      <c r="V50" s="37">
+      <c r="V51" s="37">
         <v>30</v>
       </c>
-      <c r="W50" s="37">
+      <c r="W51" s="37">
         <v>10</v>
       </c>
-      <c r="X50" s="37">
+      <c r="X51" s="37">
         <v>20</v>
       </c>
-      <c r="Y50" s="37">
+      <c r="Y51" s="37">
         <v>30</v>
       </c>
-      <c r="Z50" s="37">
+      <c r="Z51" s="37">
         <v>10</v>
       </c>
-      <c r="AA50" s="37">
+      <c r="AA51" s="37">
         <v>20</v>
       </c>
-      <c r="AB50" s="37">
+      <c r="AB51" s="37">
         <v>30</v>
       </c>
-      <c r="AC50" s="37">
+      <c r="AC51" s="37">
         <v>10</v>
       </c>
-      <c r="AD50" s="37">
+      <c r="AD51" s="37">
         <v>20</v>
       </c>
-      <c r="AE50" s="37">
+      <c r="AE51" s="37">
         <v>30</v>
       </c>
-      <c r="AF50" s="37">
+      <c r="AF51" s="37">
         <v>10</v>
       </c>
-      <c r="AG50" s="37">
+      <c r="AG51" s="37">
         <v>20</v>
       </c>
-      <c r="AH50" s="37">
+      <c r="AH51" s="37">
         <v>30</v>
       </c>
-      <c r="AI50" s="37">
+      <c r="AI51" s="37">
         <v>10</v>
       </c>
-      <c r="AJ50" s="37">
+      <c r="AJ51" s="37">
         <v>20</v>
       </c>
-      <c r="AK50" s="37">
+      <c r="AK51" s="37">
         <v>30</v>
       </c>
-      <c r="AL50" s="37">
+      <c r="AL51" s="37">
         <v>10</v>
       </c>
-      <c r="AM50" s="37">
+      <c r="AM51" s="37">
         <v>20</v>
       </c>
-      <c r="AN50" s="37">
+      <c r="AN51" s="37">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A51" s="47" t="s">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A52" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B52" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="16"/>
-      <c r="Z51" s="16"/>
-      <c r="AA51" s="16"/>
-      <c r="AB51" s="16"/>
-      <c r="AC51" s="16"/>
-      <c r="AD51" s="16"/>
-      <c r="AE51" s="16"/>
-      <c r="AF51" s="16"/>
-      <c r="AG51" s="16"/>
-      <c r="AH51" s="27"/>
-      <c r="AJ51" s="16"/>
-      <c r="AK51" s="16"/>
-      <c r="AL51" s="16"/>
-      <c r="AM51" s="16"/>
-      <c r="AN51" s="22"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A52" s="47"/>
-      <c r="B52" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="D52" s="42"/>
       <c r="E52" s="15"/>
@@ -4719,19 +4810,21 @@
       <c r="AE52" s="16"/>
       <c r="AF52" s="16"/>
       <c r="AG52" s="16"/>
-      <c r="AH52" s="16"/>
-      <c r="AI52" s="27"/>
-      <c r="AJ52" s="27"/>
+      <c r="AH52" s="27"/>
+      <c r="AJ52" s="16"/>
       <c r="AK52" s="16"/>
+      <c r="AL52" s="16"/>
       <c r="AM52" s="16"/>
       <c r="AN52" s="22"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A53" s="47"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="D53" s="42"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
@@ -4763,24 +4856,20 @@
       <c r="AF53" s="16"/>
       <c r="AG53" s="16"/>
       <c r="AH53" s="16"/>
-      <c r="AI53" s="16"/>
+      <c r="AI53" s="27"/>
       <c r="AJ53" s="27"/>
-      <c r="AK53" s="27"/>
+      <c r="AK53" s="16"/>
       <c r="AM53" s="16"/>
       <c r="AN53" s="22"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A54" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="A54" s="51"/>
+      <c r="B54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="12"/>
       <c r="D54" s="42"/>
-      <c r="E54" s="26"/>
+      <c r="E54" s="15"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -4811,24 +4900,23 @@
       <c r="AG54" s="16"/>
       <c r="AH54" s="16"/>
       <c r="AI54" s="16"/>
-      <c r="AJ54" s="16"/>
-      <c r="AK54" s="16"/>
-      <c r="AL54" s="16"/>
+      <c r="AJ54" s="27"/>
+      <c r="AK54" s="27"/>
       <c r="AM54" s="16"/>
       <c r="AN54" s="22"/>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A55" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>40</v>
+      <c r="A55" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="D55" s="42"/>
-      <c r="E55" s="15"/>
+      <c r="E55" s="26"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
@@ -4846,9 +4934,10 @@
       <c r="T55" s="16"/>
       <c r="U55" s="16"/>
       <c r="V55" s="16"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
       <c r="AA55" s="16"/>
       <c r="AB55" s="16"/>
       <c r="AC55" s="16"/>
@@ -4865,10 +4954,14 @@
       <c r="AN55" s="22"/>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="12" t="s">
-        <v>32</v>
+      <c r="A56" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="D56" s="42"/>
       <c r="E56" s="15"/>
@@ -4889,27 +4982,29 @@
       <c r="T56" s="16"/>
       <c r="U56" s="16"/>
       <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="16"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
       <c r="AA56" s="16"/>
       <c r="AB56" s="16"/>
       <c r="AC56" s="16"/>
       <c r="AD56" s="16"/>
       <c r="AE56" s="16"/>
       <c r="AF56" s="16"/>
-      <c r="AG56" s="27"/>
-      <c r="AH56" s="27"/>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="16"/>
+      <c r="AI56" s="16"/>
+      <c r="AJ56" s="16"/>
+      <c r="AK56" s="16"/>
       <c r="AL56" s="16"/>
       <c r="AM56" s="16"/>
       <c r="AN56" s="22"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="14" t="s">
-        <v>111</v>
+      <c r="A57" s="49"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D57" s="42"/>
       <c r="E57" s="15"/>
@@ -4939,22 +5034,21 @@
       <c r="AC57" s="16"/>
       <c r="AD57" s="16"/>
       <c r="AE57" s="16"/>
-      <c r="AF57" s="27"/>
-      <c r="AH57" s="16"/>
-      <c r="AJ57" s="16"/>
-      <c r="AK57" s="16"/>
+      <c r="AF57" s="16"/>
+      <c r="AG57" s="27"/>
+      <c r="AH57" s="27"/>
       <c r="AL57" s="16"/>
       <c r="AM57" s="16"/>
       <c r="AN57" s="22"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A58" s="48"/>
-      <c r="B58" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="12"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="D58" s="42"/>
-      <c r="E58" s="26"/>
+      <c r="E58" s="15"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
@@ -4981,7 +5075,7 @@
       <c r="AC58" s="16"/>
       <c r="AD58" s="16"/>
       <c r="AE58" s="16"/>
-      <c r="AF58" s="16"/>
+      <c r="AF58" s="27"/>
       <c r="AH58" s="16"/>
       <c r="AJ58" s="16"/>
       <c r="AK58" s="16"/>
@@ -4990,15 +5084,13 @@
       <c r="AN58" s="22"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A59" s="48"/>
-      <c r="B59" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="A59" s="49"/>
+      <c r="B59" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="12"/>
       <c r="D59" s="42"/>
-      <c r="E59" s="15"/>
+      <c r="E59" s="26"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
@@ -5025,8 +5117,7 @@
       <c r="AC59" s="16"/>
       <c r="AD59" s="16"/>
       <c r="AE59" s="16"/>
-      <c r="AF59" s="27"/>
-      <c r="AG59" s="16"/>
+      <c r="AF59" s="16"/>
       <c r="AH59" s="16"/>
       <c r="AJ59" s="16"/>
       <c r="AK59" s="16"/>
@@ -5035,10 +5126,12 @@
       <c r="AN59" s="22"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A60" s="48"/>
-      <c r="B60" s="45"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="48" t="s">
+        <v>52</v>
+      </c>
       <c r="C60" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
@@ -5069,6 +5162,7 @@
       <c r="AD60" s="16"/>
       <c r="AE60" s="16"/>
       <c r="AF60" s="27"/>
+      <c r="AG60" s="16"/>
       <c r="AH60" s="16"/>
       <c r="AJ60" s="16"/>
       <c r="AK60" s="16"/>
@@ -5077,14 +5171,10 @@
       <c r="AN60" s="22"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A61" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>46</v>
-      </c>
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="12" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D61" s="42"/>
       <c r="E61" s="15"/>
@@ -5108,15 +5198,14 @@
       <c r="W61" s="16"/>
       <c r="X61" s="16"/>
       <c r="Y61" s="16"/>
-      <c r="Z61" s="27"/>
-      <c r="AA61" s="27"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
       <c r="AC61" s="16"/>
       <c r="AD61" s="16"/>
       <c r="AE61" s="16"/>
-      <c r="AF61" s="16"/>
-      <c r="AG61" s="16"/>
+      <c r="AF61" s="27"/>
       <c r="AH61" s="16"/>
-      <c r="AI61" s="16"/>
       <c r="AJ61" s="16"/>
       <c r="AK61" s="16"/>
       <c r="AL61" s="16"/>
@@ -5124,10 +5213,14 @@
       <c r="AN61" s="22"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
+      <c r="A62" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="C62" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D62" s="42"/>
       <c r="E62" s="15"/>
@@ -5167,10 +5260,10 @@
       <c r="AN62" s="22"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A63" s="48"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D63" s="42"/>
       <c r="E63" s="15"/>
@@ -5193,7 +5286,7 @@
       <c r="V63" s="16"/>
       <c r="W63" s="16"/>
       <c r="X63" s="16"/>
-      <c r="Y63" s="27"/>
+      <c r="Y63" s="16"/>
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
       <c r="AC63" s="16"/>
@@ -5210,10 +5303,10 @@
       <c r="AN63" s="22"/>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D64" s="42"/>
       <c r="E64" s="15"/>
@@ -5236,7 +5329,7 @@
       <c r="V64" s="16"/>
       <c r="W64" s="16"/>
       <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
+      <c r="Y64" s="27"/>
       <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
       <c r="AC64" s="16"/>
@@ -5253,10 +5346,10 @@
       <c r="AN64" s="22"/>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A65" s="48"/>
-      <c r="B65" s="48"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="15"/>
@@ -5279,9 +5372,9 @@
       <c r="V65" s="16"/>
       <c r="W65" s="16"/>
       <c r="X65" s="16"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
       <c r="AC65" s="16"/>
       <c r="AD65" s="16"/>
       <c r="AE65" s="16"/>
@@ -5296,10 +5389,10 @@
       <c r="AN65" s="22"/>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A66" s="48"/>
-      <c r="B66" s="45"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D66" s="42"/>
       <c r="E66" s="15"/>
@@ -5322,10 +5415,9 @@
       <c r="V66" s="16"/>
       <c r="W66" s="16"/>
       <c r="X66" s="16"/>
-      <c r="Y66" s="16"/>
+      <c r="Y66" s="27"/>
       <c r="Z66" s="16"/>
       <c r="AA66" s="16"/>
-      <c r="AB66" s="16"/>
       <c r="AC66" s="16"/>
       <c r="AD66" s="16"/>
       <c r="AE66" s="16"/>
@@ -5333,17 +5425,18 @@
       <c r="AG66" s="16"/>
       <c r="AH66" s="16"/>
       <c r="AI66" s="16"/>
-      <c r="AJ66" s="27"/>
+      <c r="AJ66" s="16"/>
       <c r="AK66" s="16"/>
+      <c r="AL66" s="16"/>
       <c r="AM66" s="16"/>
       <c r="AN66" s="22"/>
     </row>
-    <row r="67" spans="1:40" ht="51" x14ac:dyDescent="0.45">
-      <c r="A67" s="45"/>
-      <c r="B67" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" s="12"/>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="D67" s="42"/>
       <c r="E67" s="15"/>
       <c r="F67" s="16"/>
@@ -5353,16 +5446,17 @@
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
-      <c r="M67" s="27"/>
+      <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="16"/>
       <c r="P67" s="16"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="16"/>
       <c r="S67" s="16"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
       <c r="X67" s="16"/>
       <c r="Y67" s="16"/>
       <c r="Z67" s="16"/>
@@ -5375,22 +5469,17 @@
       <c r="AG67" s="16"/>
       <c r="AH67" s="16"/>
       <c r="AI67" s="16"/>
-      <c r="AJ67" s="16"/>
+      <c r="AJ67" s="27"/>
       <c r="AK67" s="16"/>
-      <c r="AL67" s="16"/>
       <c r="AM67" s="16"/>
       <c r="AN67" s="22"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A68" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>23</v>
-      </c>
+    <row r="68" spans="1:40" ht="51" x14ac:dyDescent="0.45">
+      <c r="A68" s="50"/>
+      <c r="B68" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="12"/>
       <c r="D68" s="42"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
@@ -5400,16 +5489,16 @@
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
+      <c r="M68" s="27"/>
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="16"/>
-      <c r="R68" s="27"/>
+      <c r="R68" s="16"/>
       <c r="S68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
+      <c r="T68" s="27"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="27"/>
       <c r="X68" s="16"/>
       <c r="Y68" s="16"/>
       <c r="Z68" s="16"/>
@@ -5429,10 +5518,14 @@
       <c r="AN68" s="22"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
+      <c r="A69" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="48" t="s">
+        <v>24</v>
+      </c>
       <c r="C69" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D69" s="42"/>
       <c r="E69" s="15"/>
@@ -5449,7 +5542,7 @@
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
+      <c r="S69" s="16"/>
       <c r="U69" s="16"/>
       <c r="V69" s="16"/>
       <c r="W69" s="16"/>
@@ -5472,10 +5565,10 @@
       <c r="AN69" s="22"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A70" s="48"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="13" t="s">
-        <v>21</v>
+      <c r="A70" s="49"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D70" s="42"/>
       <c r="E70" s="15"/>
@@ -5492,7 +5585,7 @@
       <c r="P70" s="16"/>
       <c r="Q70" s="16"/>
       <c r="R70" s="27"/>
-      <c r="S70" s="16"/>
+      <c r="S70" s="27"/>
       <c r="U70" s="16"/>
       <c r="V70" s="16"/>
       <c r="W70" s="16"/>
@@ -5514,15 +5607,11 @@
       <c r="AM70" s="16"/>
       <c r="AN70" s="22"/>
     </row>
-    <row r="71" spans="1:40" ht="34" x14ac:dyDescent="0.45">
-      <c r="A71" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>20</v>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A71" s="49"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D71" s="42"/>
       <c r="E71" s="15"/>
@@ -5532,15 +5621,14 @@
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
-      <c r="L71" s="27"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
       <c r="O71" s="16"/>
       <c r="P71" s="16"/>
       <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
+      <c r="R71" s="27"/>
       <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
       <c r="U71" s="16"/>
       <c r="V71" s="16"/>
       <c r="W71" s="16"/>
@@ -5562,15 +5650,15 @@
       <c r="AM71" s="16"/>
       <c r="AN71" s="22"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A72" s="47" t="s">
-        <v>19</v>
+    <row r="72" spans="1:40" ht="34" x14ac:dyDescent="0.45">
+      <c r="A72" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D72" s="42"/>
       <c r="E72" s="15"/>
@@ -5580,7 +5668,7 @@
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
+      <c r="L72" s="27"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
@@ -5596,10 +5684,11 @@
       <c r="Y72" s="16"/>
       <c r="Z72" s="16"/>
       <c r="AA72" s="16"/>
-      <c r="AB72" s="27"/>
+      <c r="AB72" s="16"/>
       <c r="AC72" s="16"/>
       <c r="AD72" s="16"/>
       <c r="AE72" s="16"/>
+      <c r="AF72" s="16"/>
       <c r="AG72" s="16"/>
       <c r="AH72" s="16"/>
       <c r="AI72" s="16"/>
@@ -5610,12 +5699,14 @@
       <c r="AN72" s="22"/>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47" t="s">
-        <v>16</v>
+      <c r="A73" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D73" s="42"/>
       <c r="E73" s="15"/>
@@ -5642,8 +5733,8 @@
       <c r="Z73" s="16"/>
       <c r="AA73" s="16"/>
       <c r="AB73" s="27"/>
-      <c r="AC73" s="27"/>
-      <c r="AD73" s="27"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
       <c r="AE73" s="16"/>
       <c r="AG73" s="16"/>
       <c r="AH73" s="16"/>
@@ -5655,10 +5746,12 @@
       <c r="AN73" s="22"/>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="51" t="s">
+        <v>16</v>
+      </c>
       <c r="C74" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" s="42"/>
       <c r="E74" s="15"/>
@@ -5684,10 +5777,10 @@
       <c r="Y74" s="16"/>
       <c r="Z74" s="16"/>
       <c r="AA74" s="16"/>
-      <c r="AB74" s="16"/>
+      <c r="AB74" s="27"/>
       <c r="AC74" s="27"/>
       <c r="AD74" s="27"/>
-      <c r="AE74" s="27"/>
+      <c r="AE74" s="16"/>
       <c r="AG74" s="16"/>
       <c r="AH74" s="16"/>
       <c r="AI74" s="16"/>
@@ -5698,14 +5791,10 @@
       <c r="AN74" s="22"/>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A75" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="47" t="s">
-        <v>7</v>
-      </c>
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
       <c r="C75" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="15"/>
@@ -5717,8 +5806,9 @@
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="16"/>
       <c r="S75" s="16"/>
@@ -5731,10 +5821,9 @@
       <c r="Z75" s="16"/>
       <c r="AA75" s="16"/>
       <c r="AB75" s="16"/>
-      <c r="AC75" s="16"/>
-      <c r="AD75" s="16"/>
-      <c r="AE75" s="16"/>
-      <c r="AF75" s="16"/>
+      <c r="AC75" s="27"/>
+      <c r="AD75" s="27"/>
+      <c r="AE75" s="27"/>
       <c r="AG75" s="16"/>
       <c r="AH75" s="16"/>
       <c r="AI75" s="16"/>
@@ -5745,10 +5834,14 @@
       <c r="AN75" s="22"/>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A76" s="47"/>
-      <c r="B76" s="47"/>
+      <c r="A76" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="C76" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="42"/>
       <c r="E76" s="15"/>
@@ -5788,10 +5881,10 @@
       <c r="AN76" s="22"/>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A77" s="47"/>
-      <c r="B77" s="47"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
       <c r="C77" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D77" s="42"/>
       <c r="E77" s="15"/>
@@ -5831,10 +5924,10 @@
       <c r="AN77" s="22"/>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" s="42"/>
       <c r="E78" s="15"/>
@@ -5874,14 +5967,10 @@
       <c r="AN78" s="22"/>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A79" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="47" t="s">
-        <v>7</v>
-      </c>
+      <c r="A79" s="51"/>
+      <c r="B79" s="51"/>
       <c r="C79" s="12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="15"/>
@@ -5891,11 +5980,10 @@
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
-      <c r="L79" s="27"/>
+      <c r="L79" s="16"/>
       <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
       <c r="Q79" s="16"/>
       <c r="R79" s="16"/>
       <c r="S79" s="16"/>
@@ -5922,10 +6010,14 @@
       <c r="AN79" s="22"/>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
+      <c r="A80" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="C80" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="15"/>
@@ -5935,12 +6027,13 @@
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
       <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="27"/>
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="16"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
       <c r="S80" s="16"/>
       <c r="T80" s="16"/>
       <c r="U80" s="16"/>
@@ -5965,10 +6058,10 @@
       <c r="AN80" s="22"/>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" s="42"/>
       <c r="E81" s="15"/>
@@ -6008,30 +6101,25 @@
       <c r="AN81" s="22"/>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A82" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>99</v>
-      </c>
+      <c r="A82" s="51"/>
+      <c r="B82" s="51"/>
       <c r="C82" s="12" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D82" s="42"/>
       <c r="E82" s="15"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
       <c r="K82" s="16"/>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
       <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
       <c r="S82" s="16"/>
       <c r="T82" s="16"/>
       <c r="U82" s="16"/>
@@ -6056,19 +6144,23 @@
       <c r="AN82" s="22"/>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A83" s="47"/>
-      <c r="B83" s="45"/>
+      <c r="A83" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="48" t="s">
+        <v>99</v>
+      </c>
       <c r="C83" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D83" s="42"/>
       <c r="E83" s="15"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="27"/>
       <c r="I83" s="27"/>
       <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
+      <c r="K83" s="16"/>
       <c r="L83" s="16"/>
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
@@ -6100,19 +6192,19 @@
       <c r="AN83" s="22"/>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="12"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="D84" s="42"/>
       <c r="E84" s="15"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
       <c r="L84" s="16"/>
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
@@ -6133,8 +6225,9 @@
       <c r="AC84" s="16"/>
       <c r="AD84" s="16"/>
       <c r="AE84" s="16"/>
-      <c r="AF84" s="27"/>
+      <c r="AF84" s="16"/>
       <c r="AG84" s="16"/>
+      <c r="AH84" s="16"/>
       <c r="AI84" s="16"/>
       <c r="AJ84" s="16"/>
       <c r="AK84" s="16"/>
@@ -6143,22 +6236,20 @@
       <c r="AN84" s="22"/>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A85" s="46" t="s">
-        <v>122</v>
-      </c>
+      <c r="A85" s="11"/>
       <c r="B85" s="12" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
-      <c r="L85" s="27"/>
+      <c r="L85" s="16"/>
       <c r="M85" s="16"/>
       <c r="N85" s="16"/>
       <c r="O85" s="16"/>
@@ -6174,73 +6265,149 @@
       <c r="Y85" s="16"/>
       <c r="Z85" s="16"/>
       <c r="AA85" s="16"/>
-      <c r="AB85" s="27"/>
+      <c r="AB85" s="16"/>
       <c r="AC85" s="16"/>
       <c r="AD85" s="16"/>
       <c r="AE85" s="16"/>
-      <c r="AF85" s="16"/>
+      <c r="AF85" s="27"/>
       <c r="AG85" s="16"/>
-      <c r="AH85" s="16"/>
       <c r="AI85" s="16"/>
       <c r="AJ85" s="16"/>
       <c r="AK85" s="16"/>
-      <c r="AL85" s="27"/>
+      <c r="AL85" s="16"/>
       <c r="AM85" s="16"/>
       <c r="AN85" s="22"/>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A86" s="47"/>
+      <c r="A86" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="B86" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="24"/>
-      <c r="T86" s="24"/>
-      <c r="U86" s="24"/>
-      <c r="V86" s="24"/>
-      <c r="W86" s="24"/>
-      <c r="X86" s="24"/>
-      <c r="Y86" s="24"/>
-      <c r="Z86" s="24"/>
-      <c r="AA86" s="24"/>
-      <c r="AB86" s="24"/>
-      <c r="AC86" s="24"/>
-      <c r="AD86" s="24"/>
-      <c r="AE86" s="24"/>
-      <c r="AF86" s="24"/>
-      <c r="AG86" s="24"/>
-      <c r="AH86" s="24"/>
-      <c r="AI86" s="24"/>
-      <c r="AJ86" s="24"/>
-      <c r="AK86" s="24"/>
-      <c r="AL86" s="33"/>
-      <c r="AM86" s="33"/>
-      <c r="AN86" s="43"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+      <c r="W86" s="16"/>
+      <c r="X86" s="16"/>
+      <c r="Y86" s="16"/>
+      <c r="Z86" s="16"/>
+      <c r="AA86" s="16"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="16"/>
+      <c r="AD86" s="16"/>
+      <c r="AE86" s="16"/>
+      <c r="AF86" s="16"/>
+      <c r="AG86" s="16"/>
+      <c r="AH86" s="16"/>
+      <c r="AI86" s="16"/>
+      <c r="AJ86" s="16"/>
+      <c r="AK86" s="16"/>
+      <c r="AL86" s="27"/>
+      <c r="AM86" s="16"/>
+      <c r="AN86" s="22"/>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A87" s="51"/>
+      <c r="B87" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="24"/>
+      <c r="U87" s="24"/>
+      <c r="V87" s="24"/>
+      <c r="W87" s="24"/>
+      <c r="X87" s="24"/>
+      <c r="Y87" s="24"/>
+      <c r="Z87" s="24"/>
+      <c r="AA87" s="24"/>
+      <c r="AB87" s="24"/>
+      <c r="AC87" s="24"/>
+      <c r="AD87" s="24"/>
+      <c r="AE87" s="24"/>
+      <c r="AF87" s="24"/>
+      <c r="AG87" s="24"/>
+      <c r="AH87" s="24"/>
+      <c r="AI87" s="24"/>
+      <c r="AJ87" s="24"/>
+      <c r="AK87" s="24"/>
+      <c r="AL87" s="33"/>
+      <c r="AM87" s="33"/>
+      <c r="AN87" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B26:B33"/>
+  <mergeCells count="60">
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="AL50:AN50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AC50:AE50"/>
+    <mergeCell ref="AF50:AH50"/>
+    <mergeCell ref="AI50:AK50"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="AL3:AN3"/>
     <mergeCell ref="A5:A20"/>
@@ -6256,43 +6423,13 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="AL49:AN49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AH49"/>
-    <mergeCell ref="AI49:AK49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B26:B33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6302,13 +6439,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22B692D-44D3-4859-B9E4-E1A360A291FA}">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44:B45"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6334,81 +6471,81 @@
       <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="57" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="39"/>
-      <c r="E3" s="58">
+      <c r="E3" s="59">
         <v>44562</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="57">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="58">
         <v>44593</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57">
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58">
         <v>44621</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="60">
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="61">
         <v>44652</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58">
         <v>44682</v>
       </c>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57">
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58">
         <v>44713</v>
       </c>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57">
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58">
         <v>44743</v>
       </c>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57">
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58">
         <v>44774</v>
       </c>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57">
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58">
         <v>44805</v>
       </c>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57">
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58">
         <v>44835</v>
       </c>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57">
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58">
         <v>44866</v>
       </c>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58">
         <v>44896</v>
       </c>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="40"/>
       <c r="E4" s="34">
         <v>10</v>
@@ -6520,10 +6657,10 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="51" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -6532,11 +6669,11 @@
       <c r="D5" s="41"/>
       <c r="E5" s="30"/>
       <c r="F5" s="31"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
@@ -6568,20 +6705,20 @@
       <c r="AN5" s="21"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="32"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -6612,20 +6749,20 @@
       <c r="AN6" s="22"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="12" t="s">
         <v>97</v>
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="32"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
@@ -6656,20 +6793,20 @@
       <c r="AN7" s="22"/>
     </row>
     <row r="8" spans="1:40" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="12" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="32"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="27"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -6700,15 +6837,15 @@
       <c r="AN8" s="22"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A9" s="47"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D9" s="42"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -6735,6 +6872,7 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
       <c r="AE9" s="16"/>
+      <c r="AF9" s="46"/>
       <c r="AG9" s="27"/>
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
@@ -6745,13 +6883,13 @@
       <c r="AN9" s="22"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="42"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -6778,6 +6916,7 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
+      <c r="AF10" s="46"/>
       <c r="AG10" s="27"/>
       <c r="AH10" s="16"/>
       <c r="AI10" s="16"/>
@@ -6788,13 +6927,13 @@
       <c r="AN10" s="22"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D11" s="42"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -6821,6 +6960,7 @@
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="16"/>
+      <c r="AF11" s="46"/>
       <c r="AG11" s="27"/>
       <c r="AH11" s="16"/>
       <c r="AI11" s="16"/>
@@ -6831,13 +6971,13 @@
       <c r="AN11" s="22"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="42"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -6864,6 +7004,7 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
+      <c r="AF12" s="46"/>
       <c r="AG12" s="16"/>
       <c r="AH12" s="16"/>
       <c r="AI12" s="16"/>
@@ -6874,13 +7015,13 @@
       <c r="AN12" s="22"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="42"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -6907,6 +7048,7 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
+      <c r="AF13" s="46"/>
       <c r="AG13" s="27"/>
       <c r="AH13" s="16"/>
       <c r="AI13" s="16"/>
@@ -6917,13 +7059,13 @@
       <c r="AN13" s="22"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D14" s="42"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -6950,6 +7092,7 @@
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
+      <c r="AF14" s="46"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="16"/>
@@ -6960,13 +7103,13 @@
       <c r="AN14" s="22"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="42"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -6993,6 +7136,7 @@
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
+      <c r="AF15" s="46"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="27"/>
       <c r="AI15" s="16"/>
@@ -7003,13 +7147,13 @@
       <c r="AN15" s="22"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="42"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -7036,6 +7180,7 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
+      <c r="AF16" s="46"/>
       <c r="AG16" s="16"/>
       <c r="AH16" s="16"/>
       <c r="AI16" s="27"/>
@@ -7046,13 +7191,13 @@
       <c r="AN16" s="22"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D17" s="42"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -7079,6 +7224,7 @@
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
+      <c r="AF17" s="46"/>
       <c r="AG17" s="16"/>
       <c r="AH17" s="16"/>
       <c r="AI17" s="27"/>
@@ -7089,13 +7235,13 @@
       <c r="AN17" s="22"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="42"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -7122,6 +7268,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="16"/>
+      <c r="AF18" s="46"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="27"/>
@@ -7132,13 +7279,13 @@
       <c r="AN18" s="22"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="42"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -7165,6 +7312,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="16"/>
+      <c r="AF19" s="46"/>
       <c r="AG19" s="16"/>
       <c r="AH19" s="16"/>
       <c r="AI19" s="27"/>
@@ -7175,13 +7323,13 @@
       <c r="AN19" s="22"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A20" s="47"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="42"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -7208,6 +7356,7 @@
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
       <c r="AE20" s="16"/>
+      <c r="AF20" s="46"/>
       <c r="AG20" s="16"/>
       <c r="AH20" s="16"/>
       <c r="AI20" s="27"/>
@@ -7218,22 +7367,25 @@
       <c r="AN20" s="22"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="51" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="42"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
       <c r="N21" s="16"/>
       <c r="O21" s="27"/>
       <c r="P21" s="16"/>
@@ -7263,18 +7415,21 @@
       <c r="AN21" s="22"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="42"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
@@ -7296,6 +7451,7 @@
       <c r="AF22" s="16"/>
       <c r="AG22" s="16"/>
       <c r="AH22" s="16"/>
+      <c r="AI22" s="46"/>
       <c r="AJ22" s="16"/>
       <c r="AK22" s="16"/>
       <c r="AL22" s="27"/>
@@ -7303,18 +7459,21 @@
       <c r="AN22" s="22"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="12" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="42"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="16"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
@@ -7336,6 +7495,7 @@
       <c r="AF23" s="16"/>
       <c r="AG23" s="16"/>
       <c r="AH23" s="16"/>
+      <c r="AI23" s="46"/>
       <c r="AJ23" s="16"/>
       <c r="AK23" s="16"/>
       <c r="AL23" s="16"/>
@@ -7343,18 +7503,21 @@
       <c r="AN23" s="22"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="42"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
       <c r="N24" s="16"/>
       <c r="O24" s="27"/>
       <c r="P24" s="16"/>
@@ -7376,6 +7539,7 @@
       <c r="AF24" s="16"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="16"/>
+      <c r="AI24" s="46"/>
       <c r="AJ24" s="16"/>
       <c r="AK24" s="16"/>
       <c r="AL24" s="16"/>
@@ -7383,7 +7547,7 @@
       <c r="AN24" s="22"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A25" s="47"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="12" t="s">
         <v>72</v>
       </c>
@@ -7391,12 +7555,15 @@
         <v>57</v>
       </c>
       <c r="D25" s="42"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="16"/>
       <c r="O25" s="27"/>
       <c r="P25" s="16"/>
@@ -7418,6 +7585,7 @@
       <c r="AF25" s="16"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="16"/>
+      <c r="AI25" s="46"/>
       <c r="AJ25" s="16"/>
       <c r="AK25" s="16"/>
       <c r="AL25" s="16"/>
@@ -7425,15 +7593,15 @@
       <c r="AN25" s="22"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="42"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -7463,6 +7631,7 @@
       <c r="AF26" s="16"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="16"/>
+      <c r="AI26" s="46"/>
       <c r="AJ26" s="27"/>
       <c r="AK26" s="16"/>
       <c r="AL26" s="16"/>
@@ -7470,13 +7639,13 @@
       <c r="AN26" s="22"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="42"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -7506,6 +7675,7 @@
       <c r="AF27" s="16"/>
       <c r="AG27" s="16"/>
       <c r="AH27" s="16"/>
+      <c r="AI27" s="46"/>
       <c r="AJ27" s="27"/>
       <c r="AK27" s="27"/>
       <c r="AL27" s="16"/>
@@ -7513,13 +7683,13 @@
       <c r="AN27" s="22"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="42"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
@@ -7549,6 +7719,7 @@
       <c r="AF28" s="16"/>
       <c r="AG28" s="16"/>
       <c r="AH28" s="16"/>
+      <c r="AI28" s="46"/>
       <c r="AJ28" s="16"/>
       <c r="AK28" s="27"/>
       <c r="AL28" s="16"/>
@@ -7556,13 +7727,13 @@
       <c r="AN28" s="22"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="42"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -7592,6 +7763,7 @@
       <c r="AF29" s="16"/>
       <c r="AG29" s="16"/>
       <c r="AH29" s="16"/>
+      <c r="AI29" s="46"/>
       <c r="AJ29" s="16"/>
       <c r="AK29" s="27"/>
       <c r="AL29" s="16"/>
@@ -7599,13 +7771,13 @@
       <c r="AN29" s="22"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="42"/>
-      <c r="E30" s="15"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
@@ -7635,6 +7807,7 @@
       <c r="AF30" s="16"/>
       <c r="AG30" s="16"/>
       <c r="AH30" s="16"/>
+      <c r="AI30" s="46"/>
       <c r="AJ30" s="16"/>
       <c r="AK30" s="16"/>
       <c r="AL30" s="27"/>
@@ -7642,13 +7815,13 @@
       <c r="AN30" s="22"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D31" s="42"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -7678,6 +7851,7 @@
       <c r="AF31" s="16"/>
       <c r="AG31" s="16"/>
       <c r="AH31" s="16"/>
+      <c r="AI31" s="46"/>
       <c r="AJ31" s="16"/>
       <c r="AK31" s="16"/>
       <c r="AL31" s="27"/>
@@ -7685,13 +7859,13 @@
       <c r="AN31" s="22"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="42"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -7721,6 +7895,7 @@
       <c r="AF32" s="16"/>
       <c r="AG32" s="16"/>
       <c r="AH32" s="16"/>
+      <c r="AI32" s="46"/>
       <c r="AJ32" s="16"/>
       <c r="AK32" s="16"/>
       <c r="AL32" s="27"/>
@@ -7728,13 +7903,13 @@
       <c r="AN32" s="22"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="42"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -7764,6 +7939,7 @@
       <c r="AF33" s="16"/>
       <c r="AG33" s="16"/>
       <c r="AH33" s="16"/>
+      <c r="AI33" s="46"/>
       <c r="AJ33" s="16"/>
       <c r="AK33" s="16"/>
       <c r="AL33" s="27"/>
@@ -7781,7 +7957,7 @@
         <v>57</v>
       </c>
       <c r="D34" s="42"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -7789,6 +7965,8 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
       <c r="O34" s="16"/>
       <c r="P34" s="27"/>
       <c r="Q34" s="16"/>
@@ -7817,17 +7995,17 @@
       <c r="AN34" s="22"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A35" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="42"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -7847,12 +8025,15 @@
       <c r="V35" s="16"/>
       <c r="W35" s="27"/>
       <c r="X35" s="27"/>
+      <c r="Y35" s="46"/>
       <c r="Z35" s="16"/>
       <c r="AA35" s="16"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="16"/>
       <c r="AD35" s="16"/>
       <c r="AE35" s="16"/>
+      <c r="AF35" s="46"/>
+      <c r="AG35" s="46"/>
       <c r="AH35" s="16"/>
       <c r="AI35" s="16"/>
       <c r="AJ35" s="16"/>
@@ -7862,13 +8043,13 @@
       <c r="AN35" s="22"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="42"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -7894,6 +8075,9 @@
       <c r="AB36" s="27"/>
       <c r="AC36" s="16"/>
       <c r="AD36" s="16"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="46"/>
       <c r="AH36" s="16"/>
       <c r="AI36" s="16"/>
       <c r="AJ36" s="16"/>
@@ -7903,13 +8087,13 @@
       <c r="AN36" s="22"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="42"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -7935,6 +8119,9 @@
       <c r="AB37" s="16"/>
       <c r="AC37" s="16"/>
       <c r="AD37" s="16"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46"/>
+      <c r="AG37" s="46"/>
       <c r="AH37" s="16"/>
       <c r="AI37" s="16"/>
       <c r="AJ37" s="16"/>
@@ -7944,13 +8131,13 @@
       <c r="AN37" s="22"/>
     </row>
     <row r="38" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="48"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="42"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -7976,6 +8163,9 @@
       <c r="AB38" s="16"/>
       <c r="AC38" s="27"/>
       <c r="AD38" s="27"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="46"/>
       <c r="AH38" s="16"/>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="16"/>
@@ -7984,24 +8174,27 @@
       <c r="AM38" s="16"/>
       <c r="AN38" s="22"/>
     </row>
-    <row r="39" spans="1:40" ht="51" x14ac:dyDescent="0.45">
-      <c r="A39" s="45"/>
-      <c r="B39" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="12"/>
+    <row r="39" spans="1:40" s="46" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="49"/>
+      <c r="B39" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="44"/>
       <c r="D39" s="42"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
@@ -8023,31 +8216,27 @@
       <c r="AM39" s="16"/>
       <c r="AN39" s="22"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A40" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>26</v>
-      </c>
+    <row r="40" spans="1:40" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="50"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="12"/>
       <c r="D40" s="42"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="46"/>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
       <c r="W40" s="16"/>
@@ -8057,9 +8246,9 @@
       <c r="AA40" s="16"/>
       <c r="AB40" s="16"/>
       <c r="AC40" s="16"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="27"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
       <c r="AG40" s="16"/>
       <c r="AH40" s="16"/>
       <c r="AI40" s="16"/>
@@ -8070,17 +8259,17 @@
       <c r="AN40" s="22"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A41" s="46" t="s">
-        <v>119</v>
+      <c r="A41" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="42"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
@@ -8103,9 +8292,9 @@
       <c r="AA41" s="16"/>
       <c r="AB41" s="16"/>
       <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="27"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="16"/>
       <c r="AI41" s="16"/>
@@ -8116,27 +8305,35 @@
       <c r="AN41" s="22"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A42" s="46"/>
+      <c r="A42" s="53" t="s">
+        <v>119</v>
+      </c>
       <c r="B42" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="42"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
       <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="27"/>
       <c r="L42" s="16"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
       <c r="Z42" s="16"/>
       <c r="AA42" s="16"/>
       <c r="AB42" s="16"/>
@@ -8153,36 +8350,34 @@
       <c r="AM42" s="16"/>
       <c r="AN42" s="22"/>
     </row>
-    <row r="43" spans="1:40" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>120</v>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A43" s="53"/>
+      <c r="B43" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="C43" s="12"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="26"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
       <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
       <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="46"/>
       <c r="Z43" s="16"/>
       <c r="AA43" s="16"/>
       <c r="AB43" s="16"/>
@@ -8199,21 +8394,21 @@
       <c r="AM43" s="16"/>
       <c r="AN43" s="22"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A44" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>121</v>
+    <row r="44" spans="1:40" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="15"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="27"/>
+      <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
+      <c r="J44" s="27"/>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
@@ -8235,99 +8430,165 @@
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
       <c r="AE44" s="16"/>
-      <c r="AG44" s="27"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
       <c r="AH44" s="16"/>
       <c r="AI44" s="16"/>
       <c r="AJ44" s="16"/>
       <c r="AK44" s="16"/>
-      <c r="AL44" s="27"/>
+      <c r="AL44" s="16"/>
       <c r="AM44" s="16"/>
       <c r="AN44" s="22"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A45" s="47"/>
+      <c r="A45" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="B45" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="24"/>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="24"/>
-      <c r="AD45" s="24"/>
-      <c r="AE45" s="24"/>
-      <c r="AF45" s="24"/>
-      <c r="AG45" s="24"/>
-      <c r="AH45" s="24"/>
-      <c r="AI45" s="24"/>
-      <c r="AJ45" s="24"/>
-      <c r="AK45" s="24"/>
-      <c r="AL45" s="33"/>
-      <c r="AM45" s="33"/>
-      <c r="AN45" s="43"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="46"/>
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="16"/>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="16"/>
+      <c r="AK45" s="16"/>
+      <c r="AL45" s="27"/>
+      <c r="AM45" s="27"/>
+      <c r="AN45" s="22"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16"/>
-      <c r="AE46" s="16"/>
-      <c r="AF46" s="16"/>
-      <c r="AG46" s="16"/>
-      <c r="AH46" s="16"/>
-      <c r="AI46" s="16"/>
-      <c r="AJ46" s="16"/>
-      <c r="AK46" s="16"/>
-      <c r="AL46" s="16"/>
-      <c r="AM46" s="16"/>
-      <c r="AN46" s="16"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="47"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="47"/>
+      <c r="AH46" s="47"/>
+      <c r="AI46" s="47"/>
+      <c r="AJ46" s="47"/>
+      <c r="AK46" s="47"/>
+      <c r="AL46" s="27"/>
+      <c r="AM46" s="27"/>
+      <c r="AN46" s="27"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="16"/>
+      <c r="AI47" s="16"/>
+      <c r="AJ47" s="16"/>
+      <c r="AK47" s="16"/>
+      <c r="AL47" s="16"/>
+      <c r="AM47" s="16"/>
+      <c r="AN47" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
@@ -8336,24 +8597,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B26:B33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8395,81 +8638,81 @@
       <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="57" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="39"/>
-      <c r="E3" s="51">
+      <c r="E3" s="63">
         <v>44927</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="50">
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="62">
         <v>44562</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50">
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62">
         <v>44621</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="52">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="64">
         <v>44652</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62">
         <v>44682</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50">
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62">
         <v>44713</v>
       </c>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50">
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62">
         <v>44743</v>
       </c>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62">
         <v>44774</v>
       </c>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50">
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62">
         <v>44805</v>
       </c>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50">
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62">
         <v>44835</v>
       </c>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50">
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62">
         <v>44866</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50">
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62">
         <v>44896</v>
       </c>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="40"/>
       <c r="E4" s="37">
         <v>10</v>
@@ -8581,10 +8824,10 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="51" t="s">
         <v>116</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -8628,8 +8871,8 @@
       <c r="AN5" s="22"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -8673,7 +8916,7 @@
       <c r="AN6" s="22"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A7" s="47"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="7" t="s">
         <v>60</v>
       </c>
@@ -8717,7 +8960,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>56</v>
@@ -8764,10 +9007,10 @@
       <c r="AN8" s="22"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -8811,8 +9054,8 @@
       <c r="AN9" s="22"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="7" t="s">
         <v>32</v>
       </c>
@@ -8852,8 +9095,8 @@
       <c r="AN10" s="22"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="3" t="s">
         <v>111</v>
       </c>
@@ -8894,7 +9137,7 @@
       <c r="AN11" s="22"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="7" t="s">
         <v>53</v>
       </c>
@@ -8936,8 +9179,8 @@
       <c r="AN12" s="22"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A13" s="48"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="48" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -8981,8 +9224,8 @@
       <c r="AN13" s="22"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A14" s="48"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
@@ -9023,10 +9266,10 @@
       <c r="AN14" s="22"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -9070,8 +9313,8 @@
       <c r="AN15" s="22"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="7" t="s">
         <v>44</v>
       </c>
@@ -9113,8 +9356,8 @@
       <c r="AN16" s="22"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
@@ -9156,8 +9399,8 @@
       <c r="AN17" s="22"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="7" t="s">
         <v>42</v>
       </c>
@@ -9199,8 +9442,8 @@
       <c r="AN18" s="22"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
@@ -9242,8 +9485,8 @@
       <c r="AN19" s="22"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A20" s="48"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="7" t="s">
         <v>41</v>
       </c>
@@ -9285,7 +9528,7 @@
       <c r="AN20" s="22"/>
     </row>
     <row r="21" spans="1:40" ht="51" x14ac:dyDescent="0.45">
-      <c r="A21" s="45"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
@@ -9328,10 +9571,10 @@
       <c r="AN21" s="22"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="48" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -9375,8 +9618,8 @@
       <c r="AN22" s="22"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
@@ -9418,8 +9661,8 @@
       <c r="AN23" s="22"/>
     </row>
     <row r="24" spans="1:40" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
@@ -9509,7 +9752,7 @@
       <c r="AN25" s="22"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="51" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -9556,8 +9799,8 @@
       <c r="AN26" s="22"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -9601,8 +9844,8 @@
       <c r="AN27" s="22"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="7" t="s">
         <v>14</v>
       </c>
@@ -9644,10 +9887,10 @@
       <c r="AN28" s="22"/>
     </row>
     <row r="29" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -9691,8 +9934,8 @@
       <c r="AN29" s="22"/>
     </row>
     <row r="30" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="7" t="s">
         <v>11</v>
       </c>
@@ -9734,8 +9977,8 @@
       <c r="AN30" s="22"/>
     </row>
     <row r="31" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="7" t="s">
         <v>10</v>
       </c>
@@ -9777,8 +10020,8 @@
       <c r="AN31" s="22"/>
     </row>
     <row r="32" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="7" t="s">
         <v>9</v>
       </c>
@@ -9820,10 +10063,10 @@
       <c r="AN32" s="22"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -9868,8 +10111,8 @@
       <c r="AN33" s="22"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="7" t="s">
         <v>5</v>
       </c>
@@ -9911,8 +10154,8 @@
       <c r="AN34" s="22"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="7" t="s">
         <v>4</v>
       </c>
@@ -9954,10 +10197,10 @@
       <c r="AN35" s="22"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="48" t="s">
         <v>99</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -10002,8 +10245,8 @@
       <c r="AN36" s="22"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A37" s="47"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="7" t="s">
         <v>100</v>
       </c>
@@ -10089,11 +10332,11 @@
       <c r="AN38" s="22"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A39" s="46" t="s">
-        <v>122</v>
+      <c r="A39" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -10135,9 +10378,9 @@
       <c r="AN39" s="22"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A40" s="47"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -10218,25 +10461,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5"/>
@@ -10253,6 +10477,25 @@
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10262,13 +10505,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6876B497-280F-43E5-BD43-3EEF00025E76}">
-  <dimension ref="A1:CC78"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:CC79"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X45" sqref="X45"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10289,179 +10533,179 @@
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="63"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="64"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68" t="s">
+      <c r="G3" s="71"/>
+      <c r="H3" s="72" t="s">
         <v>112</v>
       </c>
       <c r="I3" s="39"/>
-      <c r="J3" s="58">
+      <c r="J3" s="59">
         <v>44562</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="57">
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="58">
         <v>44593</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57">
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58">
         <v>44621</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="60">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="61">
         <v>44652</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57">
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58">
         <v>44682</v>
       </c>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57">
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58">
         <v>44713</v>
       </c>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57">
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58">
         <v>44743</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57">
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58">
         <v>44774</v>
       </c>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57">
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58">
         <v>44805</v>
       </c>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57">
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58">
         <v>44835</v>
       </c>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57">
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58">
         <v>44866</v>
       </c>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57">
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58">
         <v>44896</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="51">
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="63">
         <v>44927</v>
       </c>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="50">
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="62">
         <v>44562</v>
       </c>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50">
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62">
         <v>44621</v>
       </c>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="50"/>
-      <c r="BC3" s="52">
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="64">
         <v>44652</v>
       </c>
-      <c r="BD3" s="50"/>
-      <c r="BE3" s="50"/>
-      <c r="BF3" s="50">
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62">
         <v>44682</v>
       </c>
-      <c r="BG3" s="50"/>
-      <c r="BH3" s="50"/>
-      <c r="BI3" s="50">
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62">
         <v>44713</v>
       </c>
-      <c r="BJ3" s="50"/>
-      <c r="BK3" s="50"/>
-      <c r="BL3" s="50">
+      <c r="BJ3" s="62"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62">
         <v>44743</v>
       </c>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="50"/>
-      <c r="BO3" s="50">
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62">
         <v>44774</v>
       </c>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
-      <c r="BR3" s="50">
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
+      <c r="BR3" s="62">
         <v>44805</v>
       </c>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="50"/>
-      <c r="BU3" s="50">
+      <c r="BS3" s="62"/>
+      <c r="BT3" s="62"/>
+      <c r="BU3" s="62">
         <v>44835</v>
       </c>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="50"/>
-      <c r="BX3" s="50">
+      <c r="BV3" s="62"/>
+      <c r="BW3" s="62"/>
+      <c r="BX3" s="62">
         <v>44866</v>
       </c>
-      <c r="BY3" s="50"/>
-      <c r="BZ3" s="50"/>
-      <c r="CA3" s="50">
+      <c r="BY3" s="62"/>
+      <c r="BZ3" s="62"/>
+      <c r="CA3" s="62">
         <v>44896</v>
       </c>
-      <c r="CB3" s="50"/>
-      <c r="CC3" s="50"/>
-    </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
+      <c r="CB3" s="62"/>
+      <c r="CC3" s="62"/>
+    </row>
+    <row r="4" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="36">
         <v>2020</v>
       </c>
       <c r="G4" s="36">
         <v>2023</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="40"/>
       <c r="J4" s="34">
         <v>10</v>
@@ -10681,10 +10925,10 @@
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="51" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -10704,11 +10948,9 @@
       <c r="I5" s="41"/>
       <c r="J5" s="30"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="20"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
@@ -10776,8 +11018,8 @@
       <c r="CC5" s="21"/>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="12" t="s">
         <v>98</v>
       </c>
@@ -10795,12 +11037,10 @@
       <c r="I6" s="42"/>
       <c r="J6" s="32"/>
       <c r="K6" s="28"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="27"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="Q6" s="27"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
@@ -10867,8 +11107,8 @@
       <c r="CC6" s="22"/>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="12" t="s">
         <v>97</v>
       </c>
@@ -10886,12 +11126,10 @@
       <c r="I7" s="42"/>
       <c r="J7" s="32"/>
       <c r="K7" s="28"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="27"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="Q7" s="27"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -10958,8 +11196,8 @@
       <c r="CC7" s="22"/>
     </row>
     <row r="8" spans="1:81" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="12" t="s">
         <v>88</v>
       </c>
@@ -10977,12 +11215,10 @@
       <c r="I8" s="42"/>
       <c r="J8" s="32"/>
       <c r="K8" s="28"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="27"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="27"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
@@ -11049,8 +11285,8 @@
       <c r="CC8" s="22"/>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A9" s="47"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -11141,8 +11377,8 @@
       <c r="CC9" s="22"/>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="12" t="s">
         <v>86</v>
       </c>
@@ -11231,8 +11467,8 @@
       <c r="CC10" s="22"/>
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="12" t="s">
         <v>85</v>
       </c>
@@ -11321,8 +11557,8 @@
       <c r="CC11" s="22"/>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="12" t="s">
         <v>109</v>
       </c>
@@ -11411,8 +11647,8 @@
       <c r="CC12" s="22"/>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="12" t="s">
         <v>84</v>
       </c>
@@ -11501,8 +11737,8 @@
       <c r="CC13" s="22"/>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="12" t="s">
         <v>83</v>
       </c>
@@ -11591,8 +11827,8 @@
       <c r="CC14" s="22"/>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="12" t="s">
         <v>82</v>
       </c>
@@ -11681,8 +11917,8 @@
       <c r="CC15" s="22"/>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="12" t="s">
         <v>63</v>
       </c>
@@ -11771,8 +12007,8 @@
       <c r="CC16" s="22"/>
     </row>
     <row r="17" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="12" t="s">
         <v>62</v>
       </c>
@@ -11861,8 +12097,8 @@
       <c r="CC17" s="22"/>
     </row>
     <row r="18" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="12" t="s">
         <v>42</v>
       </c>
@@ -11951,8 +12187,8 @@
       <c r="CC18" s="22"/>
     </row>
     <row r="19" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="12" t="s">
         <v>81</v>
       </c>
@@ -12041,8 +12277,8 @@
       <c r="CC19" s="22"/>
     </row>
     <row r="20" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A20" s="47"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="12" t="s">
         <v>80</v>
       </c>
@@ -12131,10 +12367,10 @@
       <c r="CC20" s="22"/>
     </row>
     <row r="21" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="51" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -12223,8 +12459,8 @@
       <c r="CC21" s="22"/>
     </row>
     <row r="22" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="12" t="s">
         <v>76</v>
       </c>
@@ -12309,9 +12545,9 @@
       <c r="CB22" s="16"/>
       <c r="CC22" s="22"/>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+    <row r="23" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="12" t="s">
         <v>75</v>
       </c>
@@ -12394,8 +12630,8 @@
       <c r="CC23" s="22"/>
     </row>
     <row r="24" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="12" t="s">
         <v>74</v>
       </c>
@@ -12481,8 +12717,8 @@
       <c r="CC24" s="22"/>
     </row>
     <row r="25" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="12" t="s">
         <v>73</v>
       </c>
@@ -12568,7 +12804,7 @@
       <c r="CC25" s="22"/>
     </row>
     <row r="26" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A26" s="47"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="12" t="s">
         <v>72</v>
       </c>
@@ -12657,8 +12893,8 @@
       <c r="CC26" s="22"/>
     </row>
     <row r="27" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -12749,8 +12985,8 @@
       <c r="CC27" s="22"/>
     </row>
     <row r="28" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="13" t="s">
         <v>70</v>
       </c>
@@ -12838,9 +13074,9 @@
       <c r="CB28" s="16"/>
       <c r="CC28" s="22"/>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+    <row r="29" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="12" t="s">
         <v>66</v>
       </c>
@@ -12926,8 +13162,8 @@
       <c r="CC29" s="22"/>
     </row>
     <row r="30" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="12" t="s">
         <v>65</v>
       </c>
@@ -13016,8 +13252,8 @@
       <c r="CC30" s="22"/>
     </row>
     <row r="31" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="12" t="s">
         <v>64</v>
       </c>
@@ -13106,8 +13342,8 @@
       <c r="CC31" s="22"/>
     </row>
     <row r="32" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="12" t="s">
         <v>63</v>
       </c>
@@ -13196,8 +13432,8 @@
       <c r="CC32" s="22"/>
     </row>
     <row r="33" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="12" t="s">
         <v>62</v>
       </c>
@@ -13286,8 +13522,8 @@
       <c r="CC33" s="22"/>
     </row>
     <row r="34" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="12" t="s">
         <v>61</v>
       </c>
@@ -13376,8 +13612,8 @@
       <c r="CC34" s="22"/>
     </row>
     <row r="35" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="12" t="s">
         <v>30</v>
       </c>
@@ -13465,8 +13701,8 @@
       <c r="CB35" s="16"/>
       <c r="CC35" s="22"/>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A36" s="47"/>
+    <row r="36" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="51"/>
       <c r="B36" s="12" t="s">
         <v>60</v>
       </c>
@@ -13556,7 +13792,7 @@
       <c r="CC36" s="22"/>
     </row>
     <row r="37" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="51" t="s">
         <v>59</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -13648,8 +13884,8 @@
       <c r="CB37" s="16"/>
       <c r="CC37" s="22"/>
     </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A38" s="47"/>
+    <row r="38" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="51"/>
       <c r="B38" s="11" t="s">
         <v>56</v>
       </c>
@@ -13741,11 +13977,11 @@
       <c r="CB38" s="16"/>
       <c r="CC38" s="22"/>
     </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A39" s="44" t="s">
+    <row r="39" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -13835,9 +14071,9 @@
       <c r="CB39" s="16"/>
       <c r="CC39" s="22"/>
     </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49"/>
+    <row r="40" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="49"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="12" t="s">
         <v>32</v>
       </c>
@@ -13923,9 +14159,9 @@
       <c r="CB40" s="16"/>
       <c r="CC40" s="22"/>
     </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
+    <row r="41" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="14" t="s">
         <v>111</v>
       </c>
@@ -14012,8 +14248,8 @@
       <c r="CB41" s="16"/>
       <c r="CC41" s="22"/>
     </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A42" s="48"/>
+    <row r="42" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="49"/>
       <c r="B42" s="12" t="s">
         <v>53</v>
       </c>
@@ -14101,9 +14337,9 @@
       <c r="CB42" s="16"/>
       <c r="CC42" s="22"/>
     </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A43" s="48"/>
-      <c r="B43" s="44" t="s">
+    <row r="43" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="49"/>
+      <c r="B43" s="48" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -14193,9 +14429,9 @@
       <c r="CB43" s="16"/>
       <c r="CC43" s="22"/>
     </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A44" s="48"/>
-      <c r="B44" s="45"/>
+    <row r="44" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="12" t="s">
         <v>28</v>
       </c>
@@ -14283,8 +14519,8 @@
       <c r="CC44" s="22"/>
     </row>
     <row r="45" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A45" s="48"/>
-      <c r="B45" s="44" t="s">
+      <c r="A45" s="49"/>
+      <c r="B45" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -14373,8 +14609,8 @@
       <c r="CC45" s="22"/>
     </row>
     <row r="46" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="12" t="s">
         <v>49</v>
       </c>
@@ -14461,8 +14697,8 @@
       <c r="CC46" s="22"/>
     </row>
     <row r="47" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="12" t="s">
         <v>48</v>
       </c>
@@ -14549,8 +14785,8 @@
       <c r="CC47" s="22"/>
     </row>
     <row r="48" spans="1:81" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="12" t="s">
         <v>47</v>
       </c>
@@ -14636,11 +14872,11 @@
       <c r="CB48" s="16"/>
       <c r="CC48" s="22"/>
     </row>
-    <row r="49" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A49" s="44" t="s">
+    <row r="49" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -14730,9 +14966,9 @@
       <c r="CB49" s="16"/>
       <c r="CC49" s="22"/>
     </row>
-    <row r="50" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
+    <row r="50" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="12" t="s">
         <v>44</v>
       </c>
@@ -14820,9 +15056,9 @@
       <c r="CB50" s="16"/>
       <c r="CC50" s="22"/>
     </row>
-    <row r="51" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
+    <row r="51" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="12" t="s">
         <v>43</v>
       </c>
@@ -14910,9 +15146,9 @@
       <c r="CB51" s="16"/>
       <c r="CC51" s="22"/>
     </row>
-    <row r="52" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
+    <row r="52" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="12" t="s">
         <v>42</v>
       </c>
@@ -15000,9 +15236,9 @@
       <c r="CB52" s="16"/>
       <c r="CC52" s="22"/>
     </row>
-    <row r="53" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
+    <row r="53" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="12" t="s">
         <v>40</v>
       </c>
@@ -15090,9 +15326,9 @@
       <c r="CB53" s="16"/>
       <c r="CC53" s="22"/>
     </row>
-    <row r="54" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A54" s="48"/>
-      <c r="B54" s="45"/>
+    <row r="54" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="12" t="s">
         <v>41</v>
       </c>
@@ -15180,35 +15416,40 @@
       <c r="CB54" s="16"/>
       <c r="CC54" s="22"/>
     </row>
-    <row r="55" spans="1:81" ht="51" x14ac:dyDescent="0.45">
-      <c r="A55" s="45"/>
-      <c r="B55" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12">
-        <v>60</v>
-      </c>
-      <c r="G55" s="12">
+    <row r="55" spans="1:81" s="46" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="49"/>
+      <c r="B55" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44">
         <v>40</v>
       </c>
-      <c r="H55" s="12"/>
+      <c r="G55" s="44">
+        <v>20</v>
+      </c>
+      <c r="H55" s="44"/>
       <c r="I55" s="42"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
       <c r="N55" s="27"/>
       <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
       <c r="Z55" s="16"/>
       <c r="AA55" s="16"/>
       <c r="AB55" s="16"/>
@@ -15229,7 +15470,7 @@
       <c r="AQ55" s="16"/>
       <c r="AR55" s="16"/>
       <c r="AS55" s="22"/>
-      <c r="AT55" s="15"/>
+      <c r="AT55" s="45"/>
       <c r="AU55" s="16"/>
       <c r="AV55" s="16"/>
       <c r="AW55" s="16"/>
@@ -15237,16 +15478,17 @@
       <c r="AY55" s="16"/>
       <c r="AZ55" s="16"/>
       <c r="BA55" s="16"/>
-      <c r="BB55" s="27"/>
+      <c r="BB55" s="16"/>
       <c r="BC55" s="16"/>
       <c r="BD55" s="16"/>
       <c r="BE55" s="16"/>
       <c r="BF55" s="16"/>
       <c r="BG55" s="16"/>
       <c r="BH55" s="16"/>
-      <c r="BI55" s="27"/>
-      <c r="BJ55" s="27"/>
-      <c r="BK55" s="27"/>
+      <c r="BI55" s="16"/>
+      <c r="BJ55" s="16"/>
+      <c r="BK55" s="16"/>
+      <c r="BL55" s="16"/>
       <c r="BM55" s="16"/>
       <c r="BN55" s="16"/>
       <c r="BO55" s="16"/>
@@ -15259,31 +15501,26 @@
       <c r="BV55" s="16"/>
       <c r="BW55" s="16"/>
       <c r="BX55" s="16"/>
-      <c r="BY55" s="16"/>
+      <c r="BY55" s="27"/>
       <c r="BZ55" s="16"/>
-      <c r="CA55" s="16"/>
       <c r="CB55" s="16"/>
       <c r="CC55" s="22"/>
     </row>
-    <row r="56" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A56" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="44" t="s">
-        <v>24</v>
-      </c>
+    <row r="56" spans="1:81" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="50"/>
+      <c r="B56" s="75"/>
       <c r="C56" s="12" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="12">
-        <v>2</v>
-      </c>
-      <c r="F56" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12">
+        <v>20</v>
+      </c>
       <c r="G56" s="12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="42"/>
@@ -15291,18 +15528,9 @@
       <c r="K56" s="16"/>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
       <c r="Z56" s="16"/>
       <c r="AA56" s="16"/>
       <c r="AB56" s="16"/>
@@ -15331,16 +15559,16 @@
       <c r="AY56" s="16"/>
       <c r="AZ56" s="16"/>
       <c r="BA56" s="16"/>
-      <c r="BB56" s="16"/>
+      <c r="BB56" s="27"/>
       <c r="BC56" s="16"/>
       <c r="BD56" s="16"/>
       <c r="BE56" s="16"/>
       <c r="BF56" s="16"/>
-      <c r="BG56" s="27"/>
+      <c r="BG56" s="16"/>
       <c r="BH56" s="16"/>
-      <c r="BJ56" s="16"/>
-      <c r="BK56" s="16"/>
-      <c r="BL56" s="16"/>
+      <c r="BI56" s="27"/>
+      <c r="BJ56" s="27"/>
+      <c r="BK56" s="27"/>
       <c r="BM56" s="16"/>
       <c r="BN56" s="16"/>
       <c r="BO56" s="16"/>
@@ -15359,11 +15587,15 @@
       <c r="CB56" s="16"/>
       <c r="CC56" s="22"/>
     </row>
-    <row r="57" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
+    <row r="57" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="48" t="s">
+        <v>24</v>
+      </c>
       <c r="C57" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>105</v>
@@ -15373,7 +15605,7 @@
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="42"/>
@@ -15427,7 +15659,7 @@
       <c r="BE57" s="16"/>
       <c r="BF57" s="16"/>
       <c r="BG57" s="27"/>
-      <c r="BH57" s="27"/>
+      <c r="BH57" s="16"/>
       <c r="BJ57" s="16"/>
       <c r="BK57" s="16"/>
       <c r="BL57" s="16"/>
@@ -15449,11 +15681,11 @@
       <c r="CB57" s="16"/>
       <c r="CC57" s="22"/>
     </row>
-    <row r="58" spans="1:81" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="13" t="s">
-        <v>21</v>
+    <row r="58" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="49"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>105</v>
@@ -15463,7 +15695,7 @@
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="42"/>
@@ -15517,7 +15749,7 @@
       <c r="BE58" s="16"/>
       <c r="BF58" s="16"/>
       <c r="BG58" s="27"/>
-      <c r="BH58" s="16"/>
+      <c r="BH58" s="27"/>
       <c r="BJ58" s="16"/>
       <c r="BK58" s="16"/>
       <c r="BL58" s="16"/>
@@ -15539,25 +15771,21 @@
       <c r="CB58" s="16"/>
       <c r="CC58" s="22"/>
     </row>
-    <row r="59" spans="1:81" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>20</v>
+    <row r="59" spans="1:81" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E59" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="42"/>
@@ -15604,15 +15832,14 @@
       <c r="AX59" s="16"/>
       <c r="AY59" s="16"/>
       <c r="AZ59" s="16"/>
-      <c r="BA59" s="27"/>
+      <c r="BA59" s="16"/>
       <c r="BB59" s="16"/>
       <c r="BC59" s="16"/>
       <c r="BD59" s="16"/>
       <c r="BE59" s="16"/>
       <c r="BF59" s="16"/>
-      <c r="BG59" s="16"/>
+      <c r="BG59" s="27"/>
       <c r="BH59" s="16"/>
-      <c r="BI59" s="16"/>
       <c r="BJ59" s="16"/>
       <c r="BK59" s="16"/>
       <c r="BL59" s="16"/>
@@ -15634,25 +15861,25 @@
       <c r="CB59" s="16"/>
       <c r="CC59" s="22"/>
     </row>
-    <row r="60" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A60" s="47" t="s">
-        <v>19</v>
+    <row r="60" spans="1:81" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E60" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="42"/>
@@ -15699,7 +15926,7 @@
       <c r="AX60" s="16"/>
       <c r="AY60" s="16"/>
       <c r="AZ60" s="16"/>
-      <c r="BA60" s="16"/>
+      <c r="BA60" s="27"/>
       <c r="BB60" s="16"/>
       <c r="BC60" s="16"/>
       <c r="BD60" s="16"/>
@@ -15715,10 +15942,11 @@
       <c r="BN60" s="16"/>
       <c r="BO60" s="16"/>
       <c r="BP60" s="16"/>
-      <c r="BQ60" s="27"/>
+      <c r="BQ60" s="16"/>
       <c r="BR60" s="16"/>
       <c r="BS60" s="16"/>
       <c r="BT60" s="16"/>
+      <c r="BU60" s="16"/>
       <c r="BV60" s="16"/>
       <c r="BW60" s="16"/>
       <c r="BX60" s="16"/>
@@ -15728,13 +15956,15 @@
       <c r="CB60" s="16"/>
       <c r="CC60" s="22"/>
     </row>
-    <row r="61" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47" t="s">
-        <v>16</v>
+    <row r="61" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>105</v>
@@ -15744,7 +15974,7 @@
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="42"/>
@@ -15808,8 +16038,8 @@
       <c r="BO61" s="16"/>
       <c r="BP61" s="16"/>
       <c r="BQ61" s="27"/>
-      <c r="BR61" s="27"/>
-      <c r="BS61" s="27"/>
+      <c r="BR61" s="16"/>
+      <c r="BS61" s="16"/>
       <c r="BT61" s="16"/>
       <c r="BV61" s="16"/>
       <c r="BW61" s="16"/>
@@ -15820,11 +16050,13 @@
       <c r="CB61" s="16"/>
       <c r="CC61" s="22"/>
     </row>
-    <row r="62" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
+    <row r="62" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="51"/>
+      <c r="B62" s="51" t="s">
+        <v>16</v>
+      </c>
       <c r="C62" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>105</v>
@@ -15897,10 +16129,10 @@
       <c r="BN62" s="16"/>
       <c r="BO62" s="16"/>
       <c r="BP62" s="16"/>
-      <c r="BQ62" s="16"/>
+      <c r="BQ62" s="27"/>
       <c r="BR62" s="27"/>
       <c r="BS62" s="27"/>
-      <c r="BT62" s="27"/>
+      <c r="BT62" s="16"/>
       <c r="BV62" s="16"/>
       <c r="BW62" s="16"/>
       <c r="BX62" s="16"/>
@@ -15910,25 +16142,21 @@
       <c r="CB62" s="16"/>
       <c r="CC62" s="22"/>
     </row>
-    <row r="63" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="47" t="s">
-        <v>7</v>
-      </c>
+    <row r="63" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E63" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="42"/>
@@ -15977,8 +16205,9 @@
       <c r="AZ63" s="16"/>
       <c r="BA63" s="16"/>
       <c r="BB63" s="16"/>
-      <c r="BC63" s="27"/>
-      <c r="BD63" s="27"/>
+      <c r="BC63" s="16"/>
+      <c r="BD63" s="16"/>
+      <c r="BE63" s="16"/>
       <c r="BF63" s="16"/>
       <c r="BG63" s="16"/>
       <c r="BH63" s="16"/>
@@ -15991,10 +16220,9 @@
       <c r="BO63" s="16"/>
       <c r="BP63" s="16"/>
       <c r="BQ63" s="16"/>
-      <c r="BR63" s="16"/>
-      <c r="BS63" s="16"/>
-      <c r="BT63" s="16"/>
-      <c r="BU63" s="16"/>
+      <c r="BR63" s="27"/>
+      <c r="BS63" s="27"/>
+      <c r="BT63" s="27"/>
       <c r="BV63" s="16"/>
       <c r="BW63" s="16"/>
       <c r="BX63" s="16"/>
@@ -16004,11 +16232,15 @@
       <c r="CB63" s="16"/>
       <c r="CC63" s="22"/>
     </row>
-    <row r="64" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
+    <row r="64" spans="1:81" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="C64" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>105</v>
@@ -16094,11 +16326,11 @@
       <c r="CB64" s="16"/>
       <c r="CC64" s="22"/>
     </row>
-    <row r="65" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
+    <row r="65" spans="1:81" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>105</v>
@@ -16184,11 +16416,11 @@
       <c r="CB65" s="16"/>
       <c r="CC65" s="22"/>
     </row>
-    <row r="66" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+    <row r="66" spans="1:81" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>105</v>
@@ -16274,25 +16506,21 @@
       <c r="CB66" s="16"/>
       <c r="CC66" s="22"/>
     </row>
-    <row r="67" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A67" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="47" t="s">
-        <v>7</v>
-      </c>
+    <row r="67" spans="1:81" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E67" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="42"/>
@@ -16339,11 +16567,10 @@
       <c r="AX67" s="16"/>
       <c r="AY67" s="16"/>
       <c r="AZ67" s="16"/>
-      <c r="BA67" s="27"/>
+      <c r="BA67" s="16"/>
       <c r="BB67" s="16"/>
-      <c r="BC67" s="16"/>
-      <c r="BD67" s="16"/>
-      <c r="BE67" s="16"/>
+      <c r="BC67" s="27"/>
+      <c r="BD67" s="27"/>
       <c r="BF67" s="16"/>
       <c r="BG67" s="16"/>
       <c r="BH67" s="16"/>
@@ -16369,21 +16596,25 @@
       <c r="CB67" s="16"/>
       <c r="CC67" s="22"/>
     </row>
-    <row r="68" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
+    <row r="68" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>7</v>
+      </c>
       <c r="C68" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E68" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="42"/>
@@ -16430,12 +16661,13 @@
       <c r="AX68" s="16"/>
       <c r="AY68" s="16"/>
       <c r="AZ68" s="16"/>
-      <c r="BA68" s="16"/>
+      <c r="BA68" s="27"/>
       <c r="BB68" s="16"/>
       <c r="BC68" s="16"/>
       <c r="BD68" s="16"/>
-      <c r="BE68" s="27"/>
-      <c r="BF68" s="27"/>
+      <c r="BE68" s="16"/>
+      <c r="BF68" s="16"/>
+      <c r="BG68" s="16"/>
       <c r="BH68" s="16"/>
       <c r="BI68" s="16"/>
       <c r="BJ68" s="16"/>
@@ -16459,11 +16691,11 @@
       <c r="CB68" s="16"/>
       <c r="CC68" s="22"/>
     </row>
-    <row r="69" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
+    <row r="69" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>105</v>
@@ -16549,15 +16781,11 @@
       <c r="CB69" s="16"/>
       <c r="CC69" s="22"/>
     </row>
-    <row r="70" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A70" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" s="44" t="s">
-        <v>99</v>
-      </c>
+    <row r="70" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="51"/>
+      <c r="B70" s="51"/>
       <c r="C70" s="12" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>105</v>
@@ -16567,7 +16795,7 @@
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="42"/>
@@ -16610,17 +16838,16 @@
       <c r="AT70" s="15"/>
       <c r="AU70" s="16"/>
       <c r="AV70" s="16"/>
-      <c r="AW70" s="27"/>
-      <c r="AX70" s="27"/>
-      <c r="AY70" s="27"/>
+      <c r="AW70" s="16"/>
+      <c r="AX70" s="16"/>
+      <c r="AY70" s="16"/>
       <c r="AZ70" s="16"/>
       <c r="BA70" s="16"/>
       <c r="BB70" s="16"/>
       <c r="BC70" s="16"/>
       <c r="BD70" s="16"/>
-      <c r="BE70" s="16"/>
-      <c r="BF70" s="16"/>
-      <c r="BG70" s="16"/>
+      <c r="BE70" s="27"/>
+      <c r="BF70" s="27"/>
       <c r="BH70" s="16"/>
       <c r="BI70" s="16"/>
       <c r="BJ70" s="16"/>
@@ -16644,11 +16871,15 @@
       <c r="CB70" s="16"/>
       <c r="CC70" s="22"/>
     </row>
-    <row r="71" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A71" s="47"/>
-      <c r="B71" s="45"/>
+    <row r="71" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="48" t="s">
+        <v>99</v>
+      </c>
       <c r="C71" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>105</v>
@@ -16658,7 +16889,7 @@
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="42"/>
@@ -16701,10 +16932,10 @@
       <c r="AT71" s="15"/>
       <c r="AU71" s="16"/>
       <c r="AV71" s="16"/>
-      <c r="AW71" s="16"/>
+      <c r="AW71" s="27"/>
       <c r="AX71" s="27"/>
       <c r="AY71" s="27"/>
-      <c r="AZ71" s="27"/>
+      <c r="AZ71" s="16"/>
       <c r="BA71" s="16"/>
       <c r="BB71" s="16"/>
       <c r="BC71" s="16"/>
@@ -16735,22 +16966,22 @@
       <c r="CB71" s="16"/>
       <c r="CC71" s="22"/>
     </row>
-    <row r="72" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A72" s="47"/>
-      <c r="B72" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" s="12"/>
+    <row r="72" spans="1:81" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="51"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="D72" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72" s="12">
-        <v>3</v>
-      </c>
-      <c r="F72" s="12">
+        <v>2</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12">
         <v>10</v>
       </c>
-      <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" s="42"/>
       <c r="J72" s="15"/>
@@ -16778,9 +17009,9 @@
       <c r="AF72" s="16"/>
       <c r="AG72" s="16"/>
       <c r="AH72" s="16"/>
-      <c r="AI72" s="27"/>
-      <c r="AJ72" s="27"/>
-      <c r="AK72" s="27"/>
+      <c r="AI72" s="16"/>
+      <c r="AJ72" s="16"/>
+      <c r="AK72" s="16"/>
       <c r="AL72" s="16"/>
       <c r="AM72" s="16"/>
       <c r="AN72" s="16"/>
@@ -16793,9 +17024,9 @@
       <c r="AU72" s="16"/>
       <c r="AV72" s="16"/>
       <c r="AW72" s="16"/>
-      <c r="AX72" s="16"/>
-      <c r="AY72" s="16"/>
-      <c r="AZ72" s="16"/>
+      <c r="AX72" s="27"/>
+      <c r="AY72" s="27"/>
+      <c r="AZ72" s="27"/>
       <c r="BA72" s="16"/>
       <c r="BB72" s="16"/>
       <c r="BC72" s="16"/>
@@ -16827,18 +17058,16 @@
       <c r="CC72" s="22"/>
     </row>
     <row r="73" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A73" s="46" t="s">
-        <v>119</v>
-      </c>
+      <c r="A73" s="51"/>
       <c r="B73" s="12" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12" t="s">
         <v>104</v>
       </c>
       <c r="E73" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" s="12">
         <v>10</v>
@@ -16847,8 +17076,8 @@
       <c r="H73" s="12"/>
       <c r="I73" s="42"/>
       <c r="J73" s="15"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
@@ -16871,9 +17100,9 @@
       <c r="AF73" s="16"/>
       <c r="AG73" s="16"/>
       <c r="AH73" s="16"/>
-      <c r="AI73" s="16"/>
-      <c r="AJ73" s="16"/>
-      <c r="AK73" s="16"/>
+      <c r="AI73" s="27"/>
+      <c r="AJ73" s="27"/>
+      <c r="AK73" s="27"/>
       <c r="AL73" s="16"/>
       <c r="AM73" s="16"/>
       <c r="AN73" s="16"/>
@@ -16920,40 +17149,43 @@
       <c r="CC73" s="22"/>
     </row>
     <row r="74" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A74" s="46"/>
+      <c r="A74" s="53" t="s">
+        <v>119</v>
+      </c>
       <c r="B74" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E74" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" s="12">
-        <v>40</v>
-      </c>
-      <c r="G74" s="12">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="42"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
+      <c r="J74" s="27"/>
       <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="P74" s="27"/>
       <c r="Q74" s="16"/>
-      <c r="R74" s="27"/>
-      <c r="S74" s="27"/>
-      <c r="T74" s="27"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
       <c r="U74" s="16"/>
       <c r="V74" s="16"/>
       <c r="W74" s="16"/>
       <c r="X74" s="16"/>
-      <c r="Y74" s="27"/>
-      <c r="Z74" s="27"/>
-      <c r="AA74" s="27"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="16"/>
+      <c r="AD74" s="16"/>
       <c r="AE74" s="16"/>
       <c r="AF74" s="16"/>
       <c r="AG74" s="16"/>
@@ -16970,9 +17202,9 @@
       <c r="AR74" s="16"/>
       <c r="AS74" s="22"/>
       <c r="AT74" s="15"/>
-      <c r="AU74" s="27"/>
-      <c r="AV74" s="27"/>
-      <c r="AW74" s="27"/>
+      <c r="AU74" s="16"/>
+      <c r="AV74" s="16"/>
+      <c r="AW74" s="16"/>
       <c r="AX74" s="16"/>
       <c r="AY74" s="16"/>
       <c r="AZ74" s="16"/>
@@ -16996,8 +17228,9 @@
       <c r="BR74" s="16"/>
       <c r="BS74" s="16"/>
       <c r="BT74" s="16"/>
-      <c r="BU74" s="27"/>
+      <c r="BU74" s="16"/>
       <c r="BV74" s="16"/>
+      <c r="BW74" s="16"/>
       <c r="BX74" s="16"/>
       <c r="BY74" s="16"/>
       <c r="BZ74" s="16"/>
@@ -17005,47 +17238,41 @@
       <c r="CB74" s="16"/>
       <c r="CC74" s="22"/>
     </row>
-    <row r="75" spans="1:81" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>120</v>
+    <row r="75" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="A75" s="53"/>
+      <c r="B75" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="12">
-        <v>7</v>
-      </c>
-      <c r="G75" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="G75" s="12">
+        <v>20</v>
+      </c>
       <c r="H75" s="12"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="26"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="15"/>
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
       <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
       <c r="U75" s="16"/>
       <c r="V75" s="16"/>
       <c r="W75" s="16"/>
       <c r="X75" s="16"/>
-      <c r="Y75" s="16"/>
-      <c r="Z75" s="16"/>
-      <c r="AA75" s="16"/>
-      <c r="AB75" s="16"/>
-      <c r="AC75" s="16"/>
-      <c r="AD75" s="16"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27"/>
       <c r="AE75" s="16"/>
       <c r="AF75" s="16"/>
       <c r="AG75" s="16"/>
@@ -17062,9 +17289,9 @@
       <c r="AR75" s="16"/>
       <c r="AS75" s="22"/>
       <c r="AT75" s="15"/>
-      <c r="AU75" s="16"/>
-      <c r="AV75" s="16"/>
-      <c r="AW75" s="16"/>
+      <c r="AU75" s="27"/>
+      <c r="AV75" s="27"/>
+      <c r="AW75" s="27"/>
       <c r="AX75" s="16"/>
       <c r="AY75" s="16"/>
       <c r="AZ75" s="16"/>
@@ -17088,9 +17315,8 @@
       <c r="BR75" s="16"/>
       <c r="BS75" s="16"/>
       <c r="BT75" s="16"/>
-      <c r="BU75" s="16"/>
+      <c r="BU75" s="27"/>
       <c r="BV75" s="16"/>
-      <c r="BW75" s="16"/>
       <c r="BX75" s="16"/>
       <c r="BY75" s="16"/>
       <c r="BZ75" s="16"/>
@@ -17098,32 +17324,31 @@
       <c r="CB75" s="16"/>
       <c r="CC75" s="22"/>
     </row>
-    <row r="76" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A76" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>121</v>
+    <row r="76" spans="1:81" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E76" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="E76" s="12">
+        <v>1</v>
+      </c>
       <c r="F76" s="12">
-        <v>5</v>
-      </c>
-      <c r="G76" s="12">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G76" s="12"/>
       <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="15"/>
+      <c r="I76" s="40"/>
       <c r="K76" s="16"/>
-      <c r="L76" s="27"/>
+      <c r="L76" s="16"/>
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
+      <c r="O76" s="27"/>
       <c r="P76" s="16"/>
       <c r="Q76" s="16"/>
       <c r="R76" s="16"/>
@@ -17145,22 +17370,23 @@
       <c r="AH76" s="16"/>
       <c r="AI76" s="16"/>
       <c r="AJ76" s="16"/>
-      <c r="AL76" s="27"/>
+      <c r="AK76" s="16"/>
+      <c r="AL76" s="16"/>
       <c r="AM76" s="16"/>
       <c r="AN76" s="16"/>
       <c r="AO76" s="16"/>
       <c r="AP76" s="16"/>
-      <c r="AQ76" s="27"/>
+      <c r="AQ76" s="16"/>
       <c r="AR76" s="16"/>
       <c r="AS76" s="22"/>
-      <c r="AT76" s="16"/>
+      <c r="AT76" s="15"/>
       <c r="AU76" s="16"/>
       <c r="AV76" s="16"/>
       <c r="AW76" s="16"/>
       <c r="AX76" s="16"/>
       <c r="AY76" s="16"/>
       <c r="AZ76" s="16"/>
-      <c r="BA76" s="27"/>
+      <c r="BA76" s="16"/>
       <c r="BB76" s="16"/>
       <c r="BC76" s="16"/>
       <c r="BD76" s="16"/>
@@ -17176,7 +17402,7 @@
       <c r="BN76" s="16"/>
       <c r="BO76" s="16"/>
       <c r="BP76" s="16"/>
-      <c r="BQ76" s="27"/>
+      <c r="BQ76" s="16"/>
       <c r="BR76" s="16"/>
       <c r="BS76" s="16"/>
       <c r="BT76" s="16"/>
@@ -17186,14 +17412,16 @@
       <c r="BX76" s="16"/>
       <c r="BY76" s="16"/>
       <c r="BZ76" s="16"/>
-      <c r="CA76" s="27"/>
+      <c r="CA76" s="16"/>
       <c r="CB76" s="16"/>
       <c r="CC76" s="22"/>
     </row>
     <row r="77" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A77" s="47"/>
+      <c r="A77" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="B77" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12" t="s">
@@ -17201,163 +17429,305 @@
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G77" s="12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="24"/>
-      <c r="S77" s="24"/>
-      <c r="T77" s="24"/>
-      <c r="U77" s="24"/>
-      <c r="V77" s="24"/>
-      <c r="W77" s="24"/>
-      <c r="X77" s="24"/>
-      <c r="Y77" s="24"/>
-      <c r="Z77" s="24"/>
-      <c r="AA77" s="24"/>
-      <c r="AB77" s="24"/>
-      <c r="AC77" s="24"/>
-      <c r="AD77" s="24"/>
-      <c r="AE77" s="24"/>
-      <c r="AF77" s="24"/>
-      <c r="AG77" s="24"/>
-      <c r="AH77" s="24"/>
-      <c r="AI77" s="24"/>
-      <c r="AJ77" s="24"/>
-      <c r="AK77" s="24"/>
-      <c r="AL77" s="24"/>
-      <c r="AM77" s="24"/>
-      <c r="AN77" s="24"/>
-      <c r="AO77" s="24"/>
-      <c r="AP77" s="24"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="16"/>
+      <c r="X77" s="16"/>
+      <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="16"/>
+      <c r="AB77" s="16"/>
+      <c r="AC77" s="16"/>
+      <c r="AD77" s="16"/>
+      <c r="AE77" s="16"/>
+      <c r="AF77" s="16"/>
+      <c r="AG77" s="16"/>
+      <c r="AH77" s="16"/>
+      <c r="AI77" s="16"/>
+      <c r="AJ77" s="16"/>
+      <c r="AL77" s="27"/>
+      <c r="AM77" s="16"/>
+      <c r="AN77" s="16"/>
+      <c r="AO77" s="16"/>
+      <c r="AP77" s="16"/>
       <c r="AQ77" s="27"/>
       <c r="AR77" s="27"/>
-      <c r="AS77" s="27"/>
-      <c r="AT77" s="24"/>
-      <c r="AU77" s="24"/>
-      <c r="AV77" s="24"/>
-      <c r="AW77" s="24"/>
-      <c r="AX77" s="24"/>
-      <c r="AY77" s="24"/>
-      <c r="AZ77" s="24"/>
-      <c r="BA77" s="24"/>
-      <c r="BB77" s="24"/>
-      <c r="BC77" s="24"/>
-      <c r="BD77" s="24"/>
-      <c r="BE77" s="24"/>
-      <c r="BF77" s="24"/>
-      <c r="BG77" s="24"/>
-      <c r="BH77" s="24"/>
-      <c r="BI77" s="24"/>
-      <c r="BJ77" s="24"/>
-      <c r="BK77" s="24"/>
-      <c r="BL77" s="24"/>
-      <c r="BM77" s="24"/>
-      <c r="BN77" s="24"/>
-      <c r="BO77" s="24"/>
-      <c r="BP77" s="24"/>
-      <c r="BQ77" s="24"/>
-      <c r="BR77" s="24"/>
-      <c r="BS77" s="24"/>
-      <c r="BT77" s="24"/>
-      <c r="BU77" s="24"/>
-      <c r="BV77" s="24"/>
-      <c r="BW77" s="24"/>
-      <c r="BX77" s="24"/>
-      <c r="BY77" s="24"/>
-      <c r="BZ77" s="24"/>
+      <c r="AS77" s="22"/>
+      <c r="AT77" s="16"/>
+      <c r="AU77" s="16"/>
+      <c r="AV77" s="16"/>
+      <c r="AW77" s="16"/>
+      <c r="AX77" s="16"/>
+      <c r="AY77" s="16"/>
+      <c r="AZ77" s="16"/>
+      <c r="BA77" s="27"/>
+      <c r="BB77" s="16"/>
+      <c r="BC77" s="16"/>
+      <c r="BD77" s="16"/>
+      <c r="BE77" s="16"/>
+      <c r="BF77" s="16"/>
+      <c r="BG77" s="16"/>
+      <c r="BH77" s="16"/>
+      <c r="BI77" s="16"/>
+      <c r="BJ77" s="16"/>
+      <c r="BK77" s="16"/>
+      <c r="BL77" s="16"/>
+      <c r="BM77" s="16"/>
+      <c r="BN77" s="16"/>
+      <c r="BO77" s="16"/>
+      <c r="BP77" s="16"/>
+      <c r="BQ77" s="27"/>
+      <c r="BR77" s="16"/>
+      <c r="BS77" s="16"/>
+      <c r="BT77" s="16"/>
+      <c r="BU77" s="16"/>
+      <c r="BV77" s="16"/>
+      <c r="BW77" s="16"/>
+      <c r="BX77" s="16"/>
+      <c r="BY77" s="16"/>
+      <c r="BZ77" s="16"/>
       <c r="CA77" s="27"/>
-      <c r="CB77" s="27"/>
-      <c r="CC77" s="25"/>
+      <c r="CB77" s="16"/>
+      <c r="CC77" s="22"/>
     </row>
     <row r="78" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="16"/>
-      <c r="W78" s="16"/>
-      <c r="X78" s="16"/>
-      <c r="Y78" s="16"/>
-      <c r="Z78" s="16"/>
-      <c r="AA78" s="16"/>
-      <c r="AB78" s="16"/>
-      <c r="AC78" s="16"/>
-      <c r="AD78" s="16"/>
-      <c r="AE78" s="16"/>
-      <c r="AF78" s="16"/>
-      <c r="AG78" s="16"/>
-      <c r="AH78" s="16"/>
-      <c r="AI78" s="16"/>
-      <c r="AJ78" s="16"/>
-      <c r="AK78" s="16"/>
-      <c r="AL78" s="16"/>
-      <c r="AM78" s="16"/>
-      <c r="AN78" s="16"/>
-      <c r="AO78" s="16"/>
-      <c r="AP78" s="16"/>
-      <c r="AQ78" s="16"/>
-      <c r="AR78" s="16"/>
-      <c r="AS78" s="16"/>
-      <c r="AT78" s="16"/>
-      <c r="AU78" s="16"/>
-      <c r="AV78" s="16"/>
-      <c r="AW78" s="16"/>
-      <c r="AX78" s="16"/>
-      <c r="AY78" s="16"/>
-      <c r="AZ78" s="16"/>
-      <c r="BA78" s="16"/>
-      <c r="BB78" s="16"/>
-      <c r="BC78" s="16"/>
-      <c r="BD78" s="16"/>
-      <c r="BE78" s="16"/>
-      <c r="BF78" s="16"/>
-      <c r="BG78" s="16"/>
-      <c r="BH78" s="16"/>
-      <c r="BI78" s="16"/>
-      <c r="BJ78" s="16"/>
-      <c r="BK78" s="16"/>
-      <c r="BL78" s="16"/>
-      <c r="BM78" s="16"/>
-      <c r="BN78" s="16"/>
-      <c r="BO78" s="16"/>
-      <c r="BP78" s="16"/>
-      <c r="BQ78" s="16"/>
-      <c r="BR78" s="16"/>
-      <c r="BS78" s="16"/>
-      <c r="BT78" s="16"/>
-      <c r="BU78" s="16"/>
-      <c r="BV78" s="16"/>
-      <c r="BW78" s="16"/>
-      <c r="BX78" s="16"/>
-      <c r="BY78" s="16"/>
-      <c r="BZ78" s="16"/>
-      <c r="CA78" s="16"/>
-      <c r="CB78" s="16"/>
-      <c r="CC78" s="16"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12">
+        <v>15</v>
+      </c>
+      <c r="G78" s="12">
+        <v>15</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="24"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="24"/>
+      <c r="AC78" s="24"/>
+      <c r="AD78" s="24"/>
+      <c r="AE78" s="24"/>
+      <c r="AF78" s="24"/>
+      <c r="AG78" s="24"/>
+      <c r="AH78" s="24"/>
+      <c r="AI78" s="24"/>
+      <c r="AJ78" s="24"/>
+      <c r="AK78" s="24"/>
+      <c r="AL78" s="24"/>
+      <c r="AM78" s="24"/>
+      <c r="AN78" s="24"/>
+      <c r="AO78" s="24"/>
+      <c r="AP78" s="24"/>
+      <c r="AQ78" s="27"/>
+      <c r="AR78" s="27"/>
+      <c r="AS78" s="27"/>
+      <c r="AT78" s="24"/>
+      <c r="AU78" s="24"/>
+      <c r="AV78" s="24"/>
+      <c r="AW78" s="24"/>
+      <c r="AX78" s="24"/>
+      <c r="AY78" s="24"/>
+      <c r="AZ78" s="24"/>
+      <c r="BA78" s="24"/>
+      <c r="BB78" s="24"/>
+      <c r="BC78" s="24"/>
+      <c r="BD78" s="24"/>
+      <c r="BE78" s="24"/>
+      <c r="BF78" s="24"/>
+      <c r="BG78" s="24"/>
+      <c r="BH78" s="24"/>
+      <c r="BI78" s="24"/>
+      <c r="BJ78" s="24"/>
+      <c r="BK78" s="24"/>
+      <c r="BL78" s="24"/>
+      <c r="BM78" s="24"/>
+      <c r="BN78" s="24"/>
+      <c r="BO78" s="24"/>
+      <c r="BP78" s="24"/>
+      <c r="BQ78" s="24"/>
+      <c r="BR78" s="24"/>
+      <c r="BS78" s="24"/>
+      <c r="BT78" s="24"/>
+      <c r="BU78" s="24"/>
+      <c r="BV78" s="24"/>
+      <c r="BW78" s="24"/>
+      <c r="BX78" s="24"/>
+      <c r="BY78" s="24"/>
+      <c r="BZ78" s="24"/>
+      <c r="CA78" s="27"/>
+      <c r="CB78" s="27"/>
+      <c r="CC78" s="25"/>
+    </row>
+    <row r="79" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
+      <c r="W79" s="16"/>
+      <c r="X79" s="16"/>
+      <c r="Y79" s="16"/>
+      <c r="Z79" s="16"/>
+      <c r="AA79" s="16"/>
+      <c r="AB79" s="16"/>
+      <c r="AC79" s="16"/>
+      <c r="AD79" s="16"/>
+      <c r="AE79" s="16"/>
+      <c r="AF79" s="16"/>
+      <c r="AG79" s="16"/>
+      <c r="AH79" s="16"/>
+      <c r="AI79" s="16"/>
+      <c r="AJ79" s="16"/>
+      <c r="AK79" s="16"/>
+      <c r="AL79" s="16"/>
+      <c r="AM79" s="16"/>
+      <c r="AN79" s="16"/>
+      <c r="AO79" s="16"/>
+      <c r="AP79" s="16"/>
+      <c r="AQ79" s="16"/>
+      <c r="AR79" s="16"/>
+      <c r="AS79" s="16"/>
+      <c r="AT79" s="16"/>
+      <c r="AU79" s="16"/>
+      <c r="AV79" s="16"/>
+      <c r="AW79" s="16"/>
+      <c r="AX79" s="16"/>
+      <c r="AY79" s="16"/>
+      <c r="AZ79" s="16"/>
+      <c r="BA79" s="16"/>
+      <c r="BB79" s="16"/>
+      <c r="BC79" s="16"/>
+      <c r="BD79" s="16"/>
+      <c r="BE79" s="16"/>
+      <c r="BF79" s="16"/>
+      <c r="BG79" s="16"/>
+      <c r="BH79" s="16"/>
+      <c r="BI79" s="16"/>
+      <c r="BJ79" s="16"/>
+      <c r="BK79" s="16"/>
+      <c r="BL79" s="16"/>
+      <c r="BM79" s="16"/>
+      <c r="BN79" s="16"/>
+      <c r="BO79" s="16"/>
+      <c r="BP79" s="16"/>
+      <c r="BQ79" s="16"/>
+      <c r="BR79" s="16"/>
+      <c r="BS79" s="16"/>
+      <c r="BT79" s="16"/>
+      <c r="BU79" s="16"/>
+      <c r="BV79" s="16"/>
+      <c r="BW79" s="16"/>
+      <c r="BX79" s="16"/>
+      <c r="BY79" s="16"/>
+      <c r="BZ79" s="16"/>
+      <c r="CA79" s="16"/>
+      <c r="CB79" s="16"/>
+      <c r="CC79" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="D3:D77" xr:uid="{C1DB20E9-1172-406B-991C-E9E6D0F0C8A1}"/>
-  <mergeCells count="61">
+  <autoFilter ref="D3:D78" xr:uid="{C1DB20E9-1172-406B-991C-E9E6D0F0C8A1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2+3차년도"/>
+        <filter val="2차년도"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="62">
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="BX3:BZ3"/>
+    <mergeCell ref="CA3:CC3"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BK3"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BQ3"/>
+    <mergeCell ref="BR3:BT3"/>
+    <mergeCell ref="BU3:BW3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:E2"/>
@@ -17374,51 +17744,6 @@
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AQ3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="BX3:BZ3"/>
-    <mergeCell ref="CA3:CC3"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BK3"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BQ3"/>
-    <mergeCell ref="BR3:BT3"/>
-    <mergeCell ref="BU3:BW3"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A73:A74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
